--- a/LR3/table_1_51.xlsx
+++ b/LR3/table_1_51.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sts18\OneDrive\Рабочий стол\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BCF46E7-EF26-41B0-B281-DE4C66A3A266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA4CABEE-2778-48C4-AFA6-2D6A0E102FD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-420" yWindow="675" windowWidth="21600" windowHeight="11295" xr2:uid="{BAAC4CC4-DE63-482D-AFD9-09E1FB54160B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BAAC4CC4-DE63-482D-AFD9-09E1FB54160B}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -36,12 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
-    <t>№квартиры</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фамилия квартирасъемщика </t>
-  </si>
-  <si>
     <t xml:space="preserve">Ахмадеев </t>
   </si>
   <si>
@@ -150,33 +144,15 @@
     <t>Куропаткин 12</t>
   </si>
   <si>
-    <t>Площадь, кв.м.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Тариф</t>
   </si>
   <si>
-    <t>Сумма, руб.</t>
-  </si>
-  <si>
-    <t>Срок оплаты, руб.</t>
-  </si>
-  <si>
-    <t>Дата оплаты, дней</t>
-  </si>
-  <si>
     <t>Просрочка</t>
   </si>
   <si>
     <t>Пени за день</t>
   </si>
   <si>
-    <t>Штраф, руб.</t>
-  </si>
-  <si>
-    <t>Итого, руб.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Общая сумма графы "Итого" руб.</t>
   </si>
   <si>
@@ -187,13 +163,40 @@
   </si>
   <si>
     <t>Максимальная сумма к оплате, руб.</t>
+  </si>
+  <si>
+    <t>Срок оплаты</t>
+  </si>
+  <si>
+    <t>Фамилия квартиросъёмщика</t>
+  </si>
+  <si>
+    <t>Площадь</t>
+  </si>
+  <si>
+    <t>Сумма</t>
+  </si>
+  <si>
+    <t>Итого</t>
+  </si>
+  <si>
+    <t>Штраф</t>
+  </si>
+  <si>
+    <t>Дата оплаты</t>
+  </si>
+  <si>
+    <t>№ квартиры</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,14 +206,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <i/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -245,15 +240,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -262,7 +254,7 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -581,13 +573,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC72CAB0-6827-4CDA-B15D-93EBDB5A2CA6}">
   <dimension ref="A1:M65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" style="4" customWidth="1"/>
+    <col min="1" max="1" width="18" style="3" customWidth="1"/>
     <col min="2" max="2" width="37.7109375" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" customWidth="1"/>
     <col min="4" max="4" width="9.28515625" customWidth="1"/>
@@ -617,38 +609,38 @@
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="A2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>46</v>
+      <c r="J2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -658,36 +650,36 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1">
         <v>70</v>
       </c>
-      <c r="D3" s="1">
-        <v>56.1</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="D3" s="5">
+        <v>56.1</v>
+      </c>
+      <c r="E3" s="5">
         <f>D3*C3</f>
         <v>3927</v>
       </c>
-      <c r="F3" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G3" s="5">
+      <c r="F3" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G3" s="4">
         <v>44805</v>
       </c>
       <c r="H3" s="1">
         <f>IF(G3&lt;=F3,0,G3-F3)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="1">
-        <v>10</v>
-      </c>
-      <c r="J3" s="1">
+      <c r="I3" s="5">
+        <v>10</v>
+      </c>
+      <c r="J3" s="5">
         <f>I3*H3</f>
         <v>0</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="5">
         <f>J3+E3</f>
         <v>3927</v>
       </c>
@@ -699,36 +691,36 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1">
         <v>69.5</v>
       </c>
-      <c r="D4" s="1">
-        <v>56.1</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="D4" s="5">
+        <v>56.1</v>
+      </c>
+      <c r="E4" s="5">
         <f t="shared" ref="E4:E38" si="0">D4*C4</f>
         <v>3898.9500000000003</v>
       </c>
-      <c r="F4" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G4" s="5">
+      <c r="F4" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G4" s="4">
         <v>44806</v>
       </c>
       <c r="H4" s="1">
         <f t="shared" ref="H4:H38" si="1">IF(G4&lt;=F4,0,G4-F4)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="1">
-        <v>10</v>
-      </c>
-      <c r="J4" s="1">
+      <c r="I4" s="5">
+        <v>10</v>
+      </c>
+      <c r="J4" s="5">
         <f t="shared" ref="J4:J38" si="2">I4*H4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="5">
         <f t="shared" ref="K4:K38" si="3">J4+E4</f>
         <v>3898.9500000000003</v>
       </c>
@@ -740,36 +732,36 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1">
         <v>69</v>
       </c>
-      <c r="D5" s="1">
-        <v>56.1</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="D5" s="5">
+        <v>56.1</v>
+      </c>
+      <c r="E5" s="5">
         <f t="shared" si="0"/>
         <v>3870.9</v>
       </c>
-      <c r="F5" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G5" s="5">
+      <c r="F5" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G5" s="4">
         <v>44807</v>
       </c>
       <c r="H5" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I5" s="1">
-        <v>10</v>
-      </c>
-      <c r="J5" s="1">
+      <c r="I5" s="5">
+        <v>10</v>
+      </c>
+      <c r="J5" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="5">
         <f t="shared" si="3"/>
         <v>3870.9</v>
       </c>
@@ -781,36 +773,36 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1">
         <v>68.5</v>
       </c>
-      <c r="D6" s="1">
-        <v>56.1</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="D6" s="5">
+        <v>56.1</v>
+      </c>
+      <c r="E6" s="5">
         <f t="shared" si="0"/>
         <v>3842.85</v>
       </c>
-      <c r="F6" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G6" s="5">
+      <c r="F6" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G6" s="4">
         <v>44808</v>
       </c>
       <c r="H6" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I6" s="1">
-        <v>10</v>
-      </c>
-      <c r="J6" s="1">
+      <c r="I6" s="5">
+        <v>10</v>
+      </c>
+      <c r="J6" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="5">
         <f t="shared" si="3"/>
         <v>3842.85</v>
       </c>
@@ -822,36 +814,36 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C7" s="1">
         <v>68</v>
       </c>
-      <c r="D7" s="1">
-        <v>56.1</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="D7" s="5">
+        <v>56.1</v>
+      </c>
+      <c r="E7" s="5">
         <f t="shared" si="0"/>
         <v>3814.8</v>
       </c>
-      <c r="F7" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G7" s="5">
+      <c r="F7" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G7" s="4">
         <v>44809</v>
       </c>
       <c r="H7" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I7" s="1">
-        <v>10</v>
-      </c>
-      <c r="J7" s="1">
+      <c r="I7" s="5">
+        <v>10</v>
+      </c>
+      <c r="J7" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="5">
         <f t="shared" si="3"/>
         <v>3814.8</v>
       </c>
@@ -863,36 +855,36 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1">
         <v>67.5</v>
       </c>
-      <c r="D8" s="1">
-        <v>56.1</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="D8" s="5">
+        <v>56.1</v>
+      </c>
+      <c r="E8" s="5">
         <f t="shared" si="0"/>
         <v>3786.75</v>
       </c>
-      <c r="F8" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G8" s="5">
+      <c r="F8" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G8" s="4">
         <v>44810</v>
       </c>
       <c r="H8" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I8" s="1">
-        <v>10</v>
-      </c>
-      <c r="J8" s="1">
+      <c r="I8" s="5">
+        <v>10</v>
+      </c>
+      <c r="J8" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="5">
         <f t="shared" si="3"/>
         <v>3786.75</v>
       </c>
@@ -904,36 +896,36 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C9" s="1">
         <v>67</v>
       </c>
-      <c r="D9" s="1">
-        <v>56.1</v>
-      </c>
-      <c r="E9" s="1">
+      <c r="D9" s="5">
+        <v>56.1</v>
+      </c>
+      <c r="E9" s="5">
         <f t="shared" si="0"/>
         <v>3758.7000000000003</v>
       </c>
-      <c r="F9" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G9" s="5">
+      <c r="F9" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G9" s="4">
         <v>44811</v>
       </c>
       <c r="H9" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I9" s="1">
-        <v>10</v>
-      </c>
-      <c r="J9" s="1">
+      <c r="I9" s="5">
+        <v>10</v>
+      </c>
+      <c r="J9" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="5">
         <f t="shared" si="3"/>
         <v>3758.7000000000003</v>
       </c>
@@ -945,36 +937,36 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C10" s="1">
         <v>66.5</v>
       </c>
-      <c r="D10" s="1">
-        <v>56.1</v>
-      </c>
-      <c r="E10" s="1">
+      <c r="D10" s="5">
+        <v>56.1</v>
+      </c>
+      <c r="E10" s="5">
         <f t="shared" si="0"/>
         <v>3730.65</v>
       </c>
-      <c r="F10" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G10" s="5">
+      <c r="F10" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G10" s="4">
         <v>44812</v>
       </c>
       <c r="H10" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I10" s="1">
-        <v>10</v>
-      </c>
-      <c r="J10" s="1">
+      <c r="I10" s="5">
+        <v>10</v>
+      </c>
+      <c r="J10" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="5">
         <f t="shared" si="3"/>
         <v>3730.65</v>
       </c>
@@ -986,36 +978,36 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C11" s="1">
         <v>66</v>
       </c>
-      <c r="D11" s="1">
-        <v>56.1</v>
-      </c>
-      <c r="E11" s="1">
+      <c r="D11" s="5">
+        <v>56.1</v>
+      </c>
+      <c r="E11" s="5">
         <f t="shared" si="0"/>
         <v>3702.6</v>
       </c>
-      <c r="F11" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G11" s="5">
+      <c r="F11" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G11" s="4">
         <v>44813</v>
       </c>
       <c r="H11" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I11" s="1">
-        <v>10</v>
-      </c>
-      <c r="J11" s="1">
+      <c r="I11" s="5">
+        <v>10</v>
+      </c>
+      <c r="J11" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="5">
         <f t="shared" si="3"/>
         <v>3702.6</v>
       </c>
@@ -1027,36 +1019,36 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C12" s="1">
         <v>65.5</v>
       </c>
-      <c r="D12" s="1">
-        <v>56.1</v>
-      </c>
-      <c r="E12" s="1">
+      <c r="D12" s="5">
+        <v>56.1</v>
+      </c>
+      <c r="E12" s="5">
         <f t="shared" si="0"/>
         <v>3674.55</v>
       </c>
-      <c r="F12" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G12" s="5">
+      <c r="F12" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G12" s="4">
         <v>44814</v>
       </c>
       <c r="H12" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I12" s="1">
-        <v>10</v>
-      </c>
-      <c r="J12" s="1">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="K12" s="1">
+      <c r="I12" s="5">
+        <v>10</v>
+      </c>
+      <c r="J12" s="5">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="K12" s="5">
         <f t="shared" si="3"/>
         <v>3684.55</v>
       </c>
@@ -1068,36 +1060,36 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C13" s="1">
         <v>65</v>
       </c>
-      <c r="D13" s="1">
-        <v>56.1</v>
-      </c>
-      <c r="E13" s="1">
+      <c r="D13" s="5">
+        <v>56.1</v>
+      </c>
+      <c r="E13" s="5">
         <f t="shared" si="0"/>
         <v>3646.5</v>
       </c>
-      <c r="F13" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G13" s="5">
+      <c r="F13" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G13" s="4">
         <v>44815</v>
       </c>
       <c r="H13" s="1">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="I13" s="1">
-        <v>10</v>
-      </c>
-      <c r="J13" s="1">
+      <c r="I13" s="5">
+        <v>10</v>
+      </c>
+      <c r="J13" s="5">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="5">
         <f t="shared" si="3"/>
         <v>3666.5</v>
       </c>
@@ -1109,36 +1101,36 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C14" s="1">
         <v>64.5</v>
       </c>
-      <c r="D14" s="1">
-        <v>56.1</v>
-      </c>
-      <c r="E14" s="1">
+      <c r="D14" s="5">
+        <v>56.1</v>
+      </c>
+      <c r="E14" s="5">
         <f t="shared" si="0"/>
         <v>3618.4500000000003</v>
       </c>
-      <c r="F14" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G14" s="5">
+      <c r="F14" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G14" s="4">
         <v>44816</v>
       </c>
       <c r="H14" s="1">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="I14" s="1">
-        <v>10</v>
-      </c>
-      <c r="J14" s="1">
+      <c r="I14" s="5">
+        <v>10</v>
+      </c>
+      <c r="J14" s="5">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="5">
         <f t="shared" si="3"/>
         <v>3648.4500000000003</v>
       </c>
@@ -1150,36 +1142,36 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C15" s="1">
         <v>64</v>
       </c>
-      <c r="D15" s="1">
-        <v>56.1</v>
-      </c>
-      <c r="E15" s="1">
+      <c r="D15" s="5">
+        <v>56.1</v>
+      </c>
+      <c r="E15" s="5">
         <f t="shared" si="0"/>
         <v>3590.4</v>
       </c>
-      <c r="F15" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G15" s="5">
+      <c r="F15" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G15" s="4">
         <v>44817</v>
       </c>
       <c r="H15" s="1">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="I15" s="1">
-        <v>10</v>
-      </c>
-      <c r="J15" s="1">
+      <c r="I15" s="5">
+        <v>10</v>
+      </c>
+      <c r="J15" s="5">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="5">
         <f t="shared" si="3"/>
         <v>3630.4</v>
       </c>
@@ -1191,36 +1183,36 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C16" s="1">
         <v>63.5</v>
       </c>
-      <c r="D16" s="1">
-        <v>56.1</v>
-      </c>
-      <c r="E16" s="1">
+      <c r="D16" s="5">
+        <v>56.1</v>
+      </c>
+      <c r="E16" s="5">
         <f t="shared" si="0"/>
         <v>3562.35</v>
       </c>
-      <c r="F16" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G16" s="5">
+      <c r="F16" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G16" s="4">
         <v>44818</v>
       </c>
       <c r="H16" s="1">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="I16" s="1">
-        <v>10</v>
-      </c>
-      <c r="J16" s="1">
+      <c r="I16" s="5">
+        <v>10</v>
+      </c>
+      <c r="J16" s="5">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16" s="5">
         <f t="shared" si="3"/>
         <v>3612.35</v>
       </c>
@@ -1232,36 +1224,36 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C17" s="1">
         <v>63</v>
       </c>
-      <c r="D17" s="1">
-        <v>56.1</v>
-      </c>
-      <c r="E17" s="1">
+      <c r="D17" s="5">
+        <v>56.1</v>
+      </c>
+      <c r="E17" s="5">
         <f t="shared" si="0"/>
         <v>3534.3</v>
       </c>
-      <c r="F17" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G17" s="5">
+      <c r="F17" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G17" s="4">
         <v>44819</v>
       </c>
       <c r="H17" s="1">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="I17" s="1">
-        <v>10</v>
-      </c>
-      <c r="J17" s="1">
+      <c r="I17" s="5">
+        <v>10</v>
+      </c>
+      <c r="J17" s="5">
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K17" s="5">
         <f t="shared" si="3"/>
         <v>3594.3</v>
       </c>
@@ -1273,36 +1265,36 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C18" s="1">
         <v>62.5</v>
       </c>
-      <c r="D18" s="1">
-        <v>56.1</v>
-      </c>
-      <c r="E18" s="1">
+      <c r="D18" s="5">
+        <v>56.1</v>
+      </c>
+      <c r="E18" s="5">
         <f t="shared" si="0"/>
         <v>3506.25</v>
       </c>
-      <c r="F18" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G18" s="5">
+      <c r="F18" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G18" s="4">
         <v>44820</v>
       </c>
       <c r="H18" s="1">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="I18" s="1">
-        <v>10</v>
-      </c>
-      <c r="J18" s="1">
+      <c r="I18" s="5">
+        <v>10</v>
+      </c>
+      <c r="J18" s="5">
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18" s="5">
         <f t="shared" si="3"/>
         <v>3576.25</v>
       </c>
@@ -1314,36 +1306,36 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C19" s="1">
         <v>62</v>
       </c>
-      <c r="D19" s="1">
-        <v>56.1</v>
-      </c>
-      <c r="E19" s="1">
+      <c r="D19" s="5">
+        <v>56.1</v>
+      </c>
+      <c r="E19" s="5">
         <f t="shared" si="0"/>
         <v>3478.2000000000003</v>
       </c>
-      <c r="F19" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G19" s="5">
+      <c r="F19" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G19" s="4">
         <v>44821</v>
       </c>
       <c r="H19" s="1">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="I19" s="1">
-        <v>10</v>
-      </c>
-      <c r="J19" s="1">
+      <c r="I19" s="5">
+        <v>10</v>
+      </c>
+      <c r="J19" s="5">
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="K19" s="1">
+      <c r="K19" s="5">
         <f t="shared" si="3"/>
         <v>3558.2000000000003</v>
       </c>
@@ -1355,36 +1347,36 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C20" s="1">
         <v>61.5</v>
       </c>
-      <c r="D20" s="1">
-        <v>56.1</v>
-      </c>
-      <c r="E20" s="1">
+      <c r="D20" s="5">
+        <v>56.1</v>
+      </c>
+      <c r="E20" s="5">
         <f t="shared" si="0"/>
         <v>3450.15</v>
       </c>
-      <c r="F20" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G20" s="5">
+      <c r="F20" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G20" s="4">
         <v>44822</v>
       </c>
       <c r="H20" s="1">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="I20" s="1">
-        <v>10</v>
-      </c>
-      <c r="J20" s="1">
+      <c r="I20" s="5">
+        <v>10</v>
+      </c>
+      <c r="J20" s="5">
         <f t="shared" si="2"/>
         <v>90</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K20" s="5">
         <f t="shared" si="3"/>
         <v>3540.15</v>
       </c>
@@ -1396,36 +1388,36 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C21" s="1">
         <v>61</v>
       </c>
-      <c r="D21" s="1">
-        <v>56.1</v>
-      </c>
-      <c r="E21" s="1">
+      <c r="D21" s="5">
+        <v>56.1</v>
+      </c>
+      <c r="E21" s="5">
         <f t="shared" si="0"/>
         <v>3422.1</v>
       </c>
-      <c r="F21" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G21" s="5">
+      <c r="F21" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G21" s="4">
         <v>44823</v>
       </c>
       <c r="H21" s="1">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="I21" s="1">
-        <v>10</v>
-      </c>
-      <c r="J21" s="1">
+      <c r="I21" s="5">
+        <v>10</v>
+      </c>
+      <c r="J21" s="5">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K21" s="5">
         <f t="shared" si="3"/>
         <v>3522.1</v>
       </c>
@@ -1437,36 +1429,36 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C22" s="1">
         <v>60.5</v>
       </c>
-      <c r="D22" s="1">
-        <v>56.1</v>
-      </c>
-      <c r="E22" s="1">
+      <c r="D22" s="5">
+        <v>56.1</v>
+      </c>
+      <c r="E22" s="5">
         <f t="shared" si="0"/>
         <v>3394.05</v>
       </c>
-      <c r="F22" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G22" s="5">
+      <c r="F22" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G22" s="4">
         <v>44824</v>
       </c>
       <c r="H22" s="1">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="I22" s="1">
-        <v>10</v>
-      </c>
-      <c r="J22" s="1">
+      <c r="I22" s="5">
+        <v>10</v>
+      </c>
+      <c r="J22" s="5">
         <f t="shared" si="2"/>
         <v>110</v>
       </c>
-      <c r="K22" s="1">
+      <c r="K22" s="5">
         <f t="shared" si="3"/>
         <v>3504.05</v>
       </c>
@@ -1478,36 +1470,36 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C23" s="1">
         <v>60</v>
       </c>
-      <c r="D23" s="1">
-        <v>56.1</v>
-      </c>
-      <c r="E23" s="1">
+      <c r="D23" s="5">
+        <v>56.1</v>
+      </c>
+      <c r="E23" s="5">
         <f t="shared" si="0"/>
         <v>3366</v>
       </c>
-      <c r="F23" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G23" s="5">
+      <c r="F23" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G23" s="4">
         <v>44825</v>
       </c>
       <c r="H23" s="1">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="I23" s="1">
-        <v>10</v>
-      </c>
-      <c r="J23" s="1">
+      <c r="I23" s="5">
+        <v>10</v>
+      </c>
+      <c r="J23" s="5">
         <f t="shared" si="2"/>
         <v>120</v>
       </c>
-      <c r="K23" s="1">
+      <c r="K23" s="5">
         <f t="shared" si="3"/>
         <v>3486</v>
       </c>
@@ -1519,36 +1511,36 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C24" s="1">
         <v>59.5</v>
       </c>
-      <c r="D24" s="1">
-        <v>56.1</v>
-      </c>
-      <c r="E24" s="1">
+      <c r="D24" s="5">
+        <v>56.1</v>
+      </c>
+      <c r="E24" s="5">
         <f t="shared" si="0"/>
         <v>3337.9500000000003</v>
       </c>
-      <c r="F24" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G24" s="5">
+      <c r="F24" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G24" s="4">
         <v>44826</v>
       </c>
       <c r="H24" s="1">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="I24" s="1">
-        <v>10</v>
-      </c>
-      <c r="J24" s="1">
+      <c r="I24" s="5">
+        <v>10</v>
+      </c>
+      <c r="J24" s="5">
         <f t="shared" si="2"/>
         <v>130</v>
       </c>
-      <c r="K24" s="1">
+      <c r="K24" s="5">
         <f t="shared" si="3"/>
         <v>3467.9500000000003</v>
       </c>
@@ -1560,36 +1552,36 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C25" s="1">
         <v>59</v>
       </c>
-      <c r="D25" s="1">
-        <v>56.1</v>
-      </c>
-      <c r="E25" s="1">
+      <c r="D25" s="5">
+        <v>56.1</v>
+      </c>
+      <c r="E25" s="5">
         <f t="shared" si="0"/>
         <v>3309.9</v>
       </c>
-      <c r="F25" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G25" s="5">
+      <c r="F25" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G25" s="4">
         <v>44827</v>
       </c>
       <c r="H25" s="1">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="I25" s="1">
-        <v>10</v>
-      </c>
-      <c r="J25" s="1">
+      <c r="I25" s="5">
+        <v>10</v>
+      </c>
+      <c r="J25" s="5">
         <f t="shared" si="2"/>
         <v>140</v>
       </c>
-      <c r="K25" s="1">
+      <c r="K25" s="5">
         <f t="shared" si="3"/>
         <v>3449.9</v>
       </c>
@@ -1601,36 +1593,36 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C26" s="1">
         <v>58.5</v>
       </c>
-      <c r="D26" s="1">
-        <v>56.1</v>
-      </c>
-      <c r="E26" s="1">
+      <c r="D26" s="5">
+        <v>56.1</v>
+      </c>
+      <c r="E26" s="5">
         <f t="shared" si="0"/>
         <v>3281.85</v>
       </c>
-      <c r="F26" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G26" s="5">
+      <c r="F26" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G26" s="4">
         <v>44828</v>
       </c>
       <c r="H26" s="1">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="I26" s="1">
-        <v>10</v>
-      </c>
-      <c r="J26" s="1">
+      <c r="I26" s="5">
+        <v>10</v>
+      </c>
+      <c r="J26" s="5">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="K26" s="1">
+      <c r="K26" s="5">
         <f t="shared" si="3"/>
         <v>3431.85</v>
       </c>
@@ -1642,36 +1634,36 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C27" s="1">
         <v>58</v>
       </c>
-      <c r="D27" s="1">
-        <v>56.1</v>
-      </c>
-      <c r="E27" s="1">
+      <c r="D27" s="5">
+        <v>56.1</v>
+      </c>
+      <c r="E27" s="5">
         <f t="shared" si="0"/>
         <v>3253.8</v>
       </c>
-      <c r="F27" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G27" s="5">
+      <c r="F27" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G27" s="4">
         <v>44829</v>
       </c>
       <c r="H27" s="1">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="I27" s="1">
-        <v>10</v>
-      </c>
-      <c r="J27" s="1">
+      <c r="I27" s="5">
+        <v>10</v>
+      </c>
+      <c r="J27" s="5">
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
-      <c r="K27" s="1">
+      <c r="K27" s="5">
         <f t="shared" si="3"/>
         <v>3413.8</v>
       </c>
@@ -1683,36 +1675,36 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C28" s="1">
         <v>57.5</v>
       </c>
-      <c r="D28" s="1">
-        <v>56.1</v>
-      </c>
-      <c r="E28" s="1">
+      <c r="D28" s="5">
+        <v>56.1</v>
+      </c>
+      <c r="E28" s="5">
         <f t="shared" si="0"/>
         <v>3225.75</v>
       </c>
-      <c r="F28" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G28" s="5">
+      <c r="F28" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G28" s="4">
         <v>44830</v>
       </c>
       <c r="H28" s="1">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="I28" s="1">
-        <v>10</v>
-      </c>
-      <c r="J28" s="1">
+      <c r="I28" s="5">
+        <v>10</v>
+      </c>
+      <c r="J28" s="5">
         <f t="shared" si="2"/>
         <v>170</v>
       </c>
-      <c r="K28" s="1">
+      <c r="K28" s="5">
         <f t="shared" si="3"/>
         <v>3395.75</v>
       </c>
@@ -1724,36 +1716,36 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C29" s="1">
         <v>57</v>
       </c>
-      <c r="D29" s="1">
-        <v>56.1</v>
-      </c>
-      <c r="E29" s="1">
+      <c r="D29" s="5">
+        <v>56.1</v>
+      </c>
+      <c r="E29" s="5">
         <f t="shared" si="0"/>
         <v>3197.7000000000003</v>
       </c>
-      <c r="F29" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G29" s="5">
+      <c r="F29" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G29" s="4">
         <v>44831</v>
       </c>
       <c r="H29" s="1">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="I29" s="1">
-        <v>10</v>
-      </c>
-      <c r="J29" s="1">
+      <c r="I29" s="5">
+        <v>10</v>
+      </c>
+      <c r="J29" s="5">
         <f t="shared" si="2"/>
         <v>180</v>
       </c>
-      <c r="K29" s="1">
+      <c r="K29" s="5">
         <f t="shared" si="3"/>
         <v>3377.7000000000003</v>
       </c>
@@ -1765,36 +1757,36 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C30" s="1">
         <v>56.5</v>
       </c>
-      <c r="D30" s="1">
-        <v>56.1</v>
-      </c>
-      <c r="E30" s="1">
+      <c r="D30" s="5">
+        <v>56.1</v>
+      </c>
+      <c r="E30" s="5">
         <f t="shared" si="0"/>
         <v>3169.65</v>
       </c>
-      <c r="F30" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G30" s="5">
+      <c r="F30" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G30" s="4">
         <v>44832</v>
       </c>
       <c r="H30" s="1">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="I30" s="1">
-        <v>10</v>
-      </c>
-      <c r="J30" s="1">
+      <c r="I30" s="5">
+        <v>10</v>
+      </c>
+      <c r="J30" s="5">
         <f t="shared" si="2"/>
         <v>190</v>
       </c>
-      <c r="K30" s="1">
+      <c r="K30" s="5">
         <f t="shared" si="3"/>
         <v>3359.65</v>
       </c>
@@ -1806,36 +1798,36 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C31" s="1">
         <v>56</v>
       </c>
-      <c r="D31" s="1">
-        <v>56.1</v>
-      </c>
-      <c r="E31" s="1">
+      <c r="D31" s="5">
+        <v>56.1</v>
+      </c>
+      <c r="E31" s="5">
         <f t="shared" si="0"/>
         <v>3141.6</v>
       </c>
-      <c r="F31" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G31" s="5">
+      <c r="F31" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G31" s="4">
         <v>44833</v>
       </c>
       <c r="H31" s="1">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="I31" s="1">
-        <v>10</v>
-      </c>
-      <c r="J31" s="1">
+      <c r="I31" s="5">
+        <v>10</v>
+      </c>
+      <c r="J31" s="5">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="K31" s="1">
+      <c r="K31" s="5">
         <f t="shared" si="3"/>
         <v>3341.6</v>
       </c>
@@ -1847,36 +1839,36 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C32" s="1">
         <v>55.5</v>
       </c>
-      <c r="D32" s="1">
-        <v>56.1</v>
-      </c>
-      <c r="E32" s="1">
+      <c r="D32" s="5">
+        <v>56.1</v>
+      </c>
+      <c r="E32" s="5">
         <f t="shared" si="0"/>
         <v>3113.55</v>
       </c>
-      <c r="F32" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G32" s="5">
+      <c r="F32" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G32" s="4">
         <v>44834</v>
       </c>
       <c r="H32" s="1">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="I32" s="1">
-        <v>10</v>
-      </c>
-      <c r="J32" s="1">
+      <c r="I32" s="5">
+        <v>10</v>
+      </c>
+      <c r="J32" s="5">
         <f t="shared" si="2"/>
         <v>210</v>
       </c>
-      <c r="K32" s="1">
+      <c r="K32" s="5">
         <f t="shared" si="3"/>
         <v>3323.55</v>
       </c>
@@ -1888,36 +1880,36 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C33" s="1">
         <v>55</v>
       </c>
-      <c r="D33" s="1">
-        <v>56.1</v>
-      </c>
-      <c r="E33" s="1">
+      <c r="D33" s="5">
+        <v>56.1</v>
+      </c>
+      <c r="E33" s="5">
         <f t="shared" si="0"/>
         <v>3085.5</v>
       </c>
-      <c r="F33" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G33" s="5">
+      <c r="F33" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G33" s="4">
         <v>44835</v>
       </c>
       <c r="H33" s="1">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="I33" s="1">
-        <v>10</v>
-      </c>
-      <c r="J33" s="1">
+      <c r="I33" s="5">
+        <v>10</v>
+      </c>
+      <c r="J33" s="5">
         <f t="shared" si="2"/>
         <v>220</v>
       </c>
-      <c r="K33" s="1">
+      <c r="K33" s="5">
         <f t="shared" si="3"/>
         <v>3305.5</v>
       </c>
@@ -1929,36 +1921,36 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C34" s="1">
         <v>54.5</v>
       </c>
-      <c r="D34" s="1">
-        <v>56.1</v>
-      </c>
-      <c r="E34" s="1">
+      <c r="D34" s="5">
+        <v>56.1</v>
+      </c>
+      <c r="E34" s="5">
         <f t="shared" si="0"/>
         <v>3057.4500000000003</v>
       </c>
-      <c r="F34" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G34" s="5">
+      <c r="F34" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G34" s="4">
         <v>44836</v>
       </c>
       <c r="H34" s="1">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="I34" s="1">
-        <v>10</v>
-      </c>
-      <c r="J34" s="1">
+      <c r="I34" s="5">
+        <v>10</v>
+      </c>
+      <c r="J34" s="5">
         <f t="shared" si="2"/>
         <v>230</v>
       </c>
-      <c r="K34" s="1">
+      <c r="K34" s="5">
         <f t="shared" si="3"/>
         <v>3287.4500000000003</v>
       </c>
@@ -1970,38 +1962,39 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C35" s="1">
         <v>54</v>
       </c>
-      <c r="D35" s="1">
-        <v>56.1</v>
-      </c>
-      <c r="E35" s="1">
-        <f t="shared" si="0"/>
-        <v>3029.4</v>
-      </c>
-      <c r="F35" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G35" s="5">
+      <c r="D35" s="5">
+        <f>D3/2</f>
+        <v>28.05</v>
+      </c>
+      <c r="E35" s="5">
+        <f t="shared" si="0"/>
+        <v>1514.7</v>
+      </c>
+      <c r="F35" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G35" s="4">
         <v>44837</v>
       </c>
       <c r="H35" s="1">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="I35" s="1">
-        <v>10</v>
-      </c>
-      <c r="J35" s="1">
+      <c r="I35" s="5">
+        <v>10</v>
+      </c>
+      <c r="J35" s="5">
         <f t="shared" si="2"/>
         <v>240</v>
       </c>
-      <c r="K35" s="1">
-        <f t="shared" si="3"/>
-        <v>3269.4</v>
+      <c r="K35" s="5">
+        <f t="shared" si="3"/>
+        <v>1754.7</v>
       </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
@@ -2011,38 +2004,39 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C36" s="1">
         <v>53.5</v>
       </c>
-      <c r="D36" s="1">
-        <v>56.1</v>
-      </c>
-      <c r="E36" s="1">
-        <f t="shared" si="0"/>
-        <v>3001.35</v>
-      </c>
-      <c r="F36" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G36" s="5">
+      <c r="D36" s="5">
+        <f t="shared" ref="D36:D38" si="4">D4/2</f>
+        <v>28.05</v>
+      </c>
+      <c r="E36" s="5">
+        <f t="shared" si="0"/>
+        <v>1500.675</v>
+      </c>
+      <c r="F36" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G36" s="4">
         <v>44838</v>
       </c>
       <c r="H36" s="1">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="I36" s="1">
-        <v>10</v>
-      </c>
-      <c r="J36" s="1">
+      <c r="I36" s="5">
+        <v>10</v>
+      </c>
+      <c r="J36" s="5">
         <f t="shared" si="2"/>
         <v>250</v>
       </c>
-      <c r="K36" s="1">
-        <f t="shared" si="3"/>
-        <v>3251.35</v>
+      <c r="K36" s="5">
+        <f t="shared" si="3"/>
+        <v>1750.675</v>
       </c>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
@@ -2052,38 +2046,39 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C37" s="1">
         <v>53</v>
       </c>
-      <c r="D37" s="1">
-        <v>56.1</v>
-      </c>
-      <c r="E37" s="1">
-        <f t="shared" si="0"/>
-        <v>2973.3</v>
-      </c>
-      <c r="F37" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G37" s="5">
+      <c r="D37" s="5">
+        <f t="shared" si="4"/>
+        <v>28.05</v>
+      </c>
+      <c r="E37" s="5">
+        <f t="shared" si="0"/>
+        <v>1486.65</v>
+      </c>
+      <c r="F37" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G37" s="4">
         <v>44839</v>
       </c>
       <c r="H37" s="1">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="I37" s="1">
-        <v>10</v>
-      </c>
-      <c r="J37" s="1">
+      <c r="I37" s="5">
+        <v>10</v>
+      </c>
+      <c r="J37" s="5">
         <f t="shared" si="2"/>
         <v>260</v>
       </c>
-      <c r="K37" s="1">
-        <f t="shared" si="3"/>
-        <v>3233.3</v>
+      <c r="K37" s="5">
+        <f t="shared" si="3"/>
+        <v>1746.65</v>
       </c>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
@@ -2093,38 +2088,39 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C38" s="1">
         <v>52.5</v>
       </c>
-      <c r="D38" s="1">
-        <v>56.1</v>
-      </c>
-      <c r="E38" s="1">
-        <f t="shared" si="0"/>
-        <v>2945.25</v>
-      </c>
-      <c r="F38" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G38" s="5">
+      <c r="D38" s="5">
+        <f t="shared" si="4"/>
+        <v>28.05</v>
+      </c>
+      <c r="E38" s="5">
+        <f t="shared" si="0"/>
+        <v>1472.625</v>
+      </c>
+      <c r="F38" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G38" s="4">
         <v>44840</v>
       </c>
       <c r="H38" s="1">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="I38" s="1">
-        <v>10</v>
-      </c>
-      <c r="J38" s="1">
+      <c r="I38" s="5">
+        <v>10</v>
+      </c>
+      <c r="J38" s="5">
         <f t="shared" si="2"/>
         <v>270</v>
       </c>
-      <c r="K38" s="1">
-        <f t="shared" si="3"/>
-        <v>3215.25</v>
+      <c r="K38" s="5">
+        <f t="shared" si="3"/>
+        <v>1742.625</v>
       </c>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
@@ -2147,11 +2143,11 @@
     <row r="40" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C40" s="6">
+        <v>39</v>
+      </c>
+      <c r="C40" s="5">
         <f>SUM(K3:K38)</f>
-        <v>127480.50000000001</v>
+        <v>121505.85</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -2167,7 +2163,7 @@
     <row r="41" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
@@ -2187,7 +2183,7 @@
     <row r="42" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2207,9 +2203,9 @@
     <row r="43" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C43" s="1">
+        <v>42</v>
+      </c>
+      <c r="C43" s="5">
         <f>MAX(K3:K38)</f>
         <v>3927</v>
       </c>
@@ -2555,7 +2551,7 @@
       <c r="M65" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>

--- a/LR3/table_1_51.xlsx
+++ b/LR3/table_1_51.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\IT_LR\LR3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sts18\OneDrive\Рабочий стол\УНИК\ИТ (Алексеев)\Лаба3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA4CABEE-2778-48C4-AFA6-2D6A0E102FD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C130E0C-3AFA-46EE-8C30-772C84A9DAB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BAAC4CC4-DE63-482D-AFD9-09E1FB54160B}"/>
   </bookViews>
@@ -144,15 +144,6 @@
     <t>Куропаткин 12</t>
   </si>
   <si>
-    <t xml:space="preserve"> Тариф</t>
-  </si>
-  <si>
-    <t>Просрочка</t>
-  </si>
-  <si>
-    <t>Пени за день</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Общая сумма графы "Итого" руб.</t>
   </si>
   <si>
@@ -171,22 +162,31 @@
     <t>Фамилия квартиросъёмщика</t>
   </si>
   <si>
-    <t>Площадь</t>
-  </si>
-  <si>
-    <t>Сумма</t>
-  </si>
-  <si>
-    <t>Итого</t>
-  </si>
-  <si>
-    <t>Штраф</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
     <t>№ квартиры</t>
+  </si>
+  <si>
+    <t>Сумма, руб.</t>
+  </si>
+  <si>
+    <t>Площадь кв,м.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Тариф, руб/кв.м.</t>
+  </si>
+  <si>
+    <t>Просрочка, дней</t>
+  </si>
+  <si>
+    <t>Пени за 1 день, руб.</t>
+  </si>
+  <si>
+    <t>Штраф, руб.</t>
+  </si>
+  <si>
+    <t>Итого, руб.</t>
   </si>
 </sst>
 </file>
@@ -240,7 +240,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -256,6 +256,12 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -573,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC72CAB0-6827-4CDA-B15D-93EBDB5A2CA6}">
   <dimension ref="A1:M65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,12 +588,12 @@
     <col min="1" max="1" width="18" style="3" customWidth="1"/>
     <col min="2" max="2" width="37.7109375" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" customWidth="1"/>
-    <col min="9" max="10" width="13.5703125" customWidth="1"/>
+    <col min="7" max="8" width="19.28515625" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
   </cols>
   <sheetData>
@@ -610,43 +616,43 @@
     </row>
     <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="K2" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="7">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -655,10 +661,11 @@
       <c r="C3" s="1">
         <v>70</v>
       </c>
-      <c r="D3" s="5">
-        <v>56.1</v>
-      </c>
-      <c r="E3" s="5">
+      <c r="D3" s="6">
+        <f>$A$1*1.1</f>
+        <v>56.1</v>
+      </c>
+      <c r="E3" s="6">
         <f>D3*C3</f>
         <v>3927</v>
       </c>
@@ -672,14 +679,14 @@
         <f>IF(G3&lt;=F3,0,G3-F3)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="5">
-        <v>10</v>
-      </c>
-      <c r="J3" s="5">
+      <c r="I3" s="6">
+        <v>10</v>
+      </c>
+      <c r="J3" s="6">
         <f>I3*H3</f>
         <v>0</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="6">
         <f>J3+E3</f>
         <v>3927</v>
       </c>
@@ -688,19 +695,22 @@
     </row>
     <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
+        <f>A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1">
+        <f>C3-0.5</f>
         <v>69.5</v>
       </c>
-      <c r="D4" s="5">
-        <v>56.1</v>
-      </c>
-      <c r="E4" s="5">
-        <f t="shared" ref="E4:E38" si="0">D4*C4</f>
+      <c r="D4" s="6">
+        <f t="shared" ref="D4:D34" si="0">$A$1*1.1</f>
+        <v>56.1</v>
+      </c>
+      <c r="E4" s="6">
+        <f t="shared" ref="E4:E38" si="1">D4*C4</f>
         <v>3898.9500000000003</v>
       </c>
       <c r="F4" s="4">
@@ -710,18 +720,18 @@
         <v>44806</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" ref="H4:H38" si="1">IF(G4&lt;=F4,0,G4-F4)</f>
+        <f t="shared" ref="H4:H38" si="2">IF(G4&lt;=F4,0,G4-F4)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="5">
-        <v>10</v>
-      </c>
-      <c r="J4" s="5">
-        <f t="shared" ref="J4:J38" si="2">I4*H4</f>
+      <c r="I4" s="6">
+        <v>10</v>
+      </c>
+      <c r="J4" s="6">
+        <f t="shared" ref="J4:J38" si="3">I4*H4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="5">
-        <f t="shared" ref="K4:K38" si="3">J4+E4</f>
+      <c r="K4" s="6">
+        <f t="shared" ref="K4:K38" si="4">J4+E4</f>
         <v>3898.9500000000003</v>
       </c>
       <c r="L4" s="1"/>
@@ -729,19 +739,22 @@
     </row>
     <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
+        <f>A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="1">
+        <f>C4-0.5</f>
         <v>69</v>
       </c>
-      <c r="D5" s="5">
-        <v>56.1</v>
-      </c>
-      <c r="E5" s="5">
-        <f t="shared" si="0"/>
+      <c r="D5" s="6">
+        <f t="shared" si="0"/>
+        <v>56.1</v>
+      </c>
+      <c r="E5" s="6">
+        <f t="shared" si="1"/>
         <v>3870.9</v>
       </c>
       <c r="F5" s="4">
@@ -751,18 +764,18 @@
         <v>44807</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I5" s="5">
-        <v>10</v>
-      </c>
-      <c r="J5" s="5">
-        <f t="shared" si="2"/>
+      <c r="I5" s="6">
+        <v>10</v>
+      </c>
+      <c r="J5" s="6">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K5" s="5">
-        <f t="shared" si="3"/>
+      <c r="K5" s="6">
+        <f t="shared" si="4"/>
         <v>3870.9</v>
       </c>
       <c r="L5" s="1"/>
@@ -770,19 +783,22 @@
     </row>
     <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
+        <f t="shared" ref="A6:A38" si="5">A5+1</f>
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="1">
+        <f t="shared" ref="C6:C38" si="6">C5-0.5</f>
         <v>68.5</v>
       </c>
-      <c r="D6" s="5">
-        <v>56.1</v>
-      </c>
-      <c r="E6" s="5">
-        <f t="shared" si="0"/>
+      <c r="D6" s="6">
+        <f t="shared" si="0"/>
+        <v>56.1</v>
+      </c>
+      <c r="E6" s="6">
+        <f t="shared" si="1"/>
         <v>3842.85</v>
       </c>
       <c r="F6" s="4">
@@ -792,18 +808,18 @@
         <v>44808</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I6" s="5">
-        <v>10</v>
-      </c>
-      <c r="J6" s="5">
-        <f t="shared" si="2"/>
+      <c r="I6" s="6">
+        <v>10</v>
+      </c>
+      <c r="J6" s="6">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K6" s="5">
-        <f t="shared" si="3"/>
+      <c r="K6" s="6">
+        <f t="shared" si="4"/>
         <v>3842.85</v>
       </c>
       <c r="L6" s="1"/>
@@ -811,19 +827,22 @@
     </row>
     <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1">
+        <f t="shared" si="6"/>
         <v>68</v>
       </c>
-      <c r="D7" s="5">
-        <v>56.1</v>
-      </c>
-      <c r="E7" s="5">
-        <f t="shared" si="0"/>
+      <c r="D7" s="6">
+        <f t="shared" si="0"/>
+        <v>56.1</v>
+      </c>
+      <c r="E7" s="6">
+        <f t="shared" si="1"/>
         <v>3814.8</v>
       </c>
       <c r="F7" s="4">
@@ -833,18 +852,18 @@
         <v>44809</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I7" s="5">
-        <v>10</v>
-      </c>
-      <c r="J7" s="5">
-        <f t="shared" si="2"/>
+      <c r="I7" s="6">
+        <v>10</v>
+      </c>
+      <c r="J7" s="6">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K7" s="5">
-        <f t="shared" si="3"/>
+      <c r="K7" s="6">
+        <f t="shared" si="4"/>
         <v>3814.8</v>
       </c>
       <c r="L7" s="1"/>
@@ -852,19 +871,22 @@
     </row>
     <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="1">
+        <f t="shared" si="6"/>
         <v>67.5</v>
       </c>
-      <c r="D8" s="5">
-        <v>56.1</v>
-      </c>
-      <c r="E8" s="5">
-        <f t="shared" si="0"/>
+      <c r="D8" s="6">
+        <f t="shared" si="0"/>
+        <v>56.1</v>
+      </c>
+      <c r="E8" s="6">
+        <f t="shared" si="1"/>
         <v>3786.75</v>
       </c>
       <c r="F8" s="4">
@@ -874,18 +896,18 @@
         <v>44810</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I8" s="5">
-        <v>10</v>
-      </c>
-      <c r="J8" s="5">
-        <f t="shared" si="2"/>
+      <c r="I8" s="6">
+        <v>10</v>
+      </c>
+      <c r="J8" s="6">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K8" s="5">
-        <f t="shared" si="3"/>
+      <c r="K8" s="6">
+        <f t="shared" si="4"/>
         <v>3786.75</v>
       </c>
       <c r="L8" s="1"/>
@@ -893,19 +915,22 @@
     </row>
     <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="1">
+        <f t="shared" si="6"/>
         <v>67</v>
       </c>
-      <c r="D9" s="5">
-        <v>56.1</v>
-      </c>
-      <c r="E9" s="5">
-        <f t="shared" si="0"/>
+      <c r="D9" s="6">
+        <f t="shared" si="0"/>
+        <v>56.1</v>
+      </c>
+      <c r="E9" s="6">
+        <f t="shared" si="1"/>
         <v>3758.7000000000003</v>
       </c>
       <c r="F9" s="4">
@@ -915,18 +940,18 @@
         <v>44811</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I9" s="5">
-        <v>10</v>
-      </c>
-      <c r="J9" s="5">
-        <f t="shared" si="2"/>
+      <c r="I9" s="6">
+        <v>10</v>
+      </c>
+      <c r="J9" s="6">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K9" s="5">
-        <f t="shared" si="3"/>
+      <c r="K9" s="6">
+        <f t="shared" si="4"/>
         <v>3758.7000000000003</v>
       </c>
       <c r="L9" s="1"/>
@@ -934,19 +959,22 @@
     </row>
     <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="1">
+        <f t="shared" si="6"/>
         <v>66.5</v>
       </c>
-      <c r="D10" s="5">
-        <v>56.1</v>
-      </c>
-      <c r="E10" s="5">
-        <f t="shared" si="0"/>
+      <c r="D10" s="6">
+        <f t="shared" si="0"/>
+        <v>56.1</v>
+      </c>
+      <c r="E10" s="6">
+        <f t="shared" si="1"/>
         <v>3730.65</v>
       </c>
       <c r="F10" s="4">
@@ -956,18 +984,18 @@
         <v>44812</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I10" s="5">
-        <v>10</v>
-      </c>
-      <c r="J10" s="5">
-        <f t="shared" si="2"/>
+      <c r="I10" s="6">
+        <v>10</v>
+      </c>
+      <c r="J10" s="6">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K10" s="5">
-        <f t="shared" si="3"/>
+      <c r="K10" s="6">
+        <f t="shared" si="4"/>
         <v>3730.65</v>
       </c>
       <c r="L10" s="1"/>
@@ -975,19 +1003,22 @@
     </row>
     <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="1">
+        <f t="shared" si="6"/>
         <v>66</v>
       </c>
-      <c r="D11" s="5">
-        <v>56.1</v>
-      </c>
-      <c r="E11" s="5">
-        <f t="shared" si="0"/>
+      <c r="D11" s="6">
+        <f t="shared" si="0"/>
+        <v>56.1</v>
+      </c>
+      <c r="E11" s="6">
+        <f t="shared" si="1"/>
         <v>3702.6</v>
       </c>
       <c r="F11" s="4">
@@ -997,18 +1028,18 @@
         <v>44813</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I11" s="5">
-        <v>10</v>
-      </c>
-      <c r="J11" s="5">
-        <f t="shared" si="2"/>
+      <c r="I11" s="6">
+        <v>10</v>
+      </c>
+      <c r="J11" s="6">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K11" s="5">
-        <f t="shared" si="3"/>
+      <c r="K11" s="6">
+        <f t="shared" si="4"/>
         <v>3702.6</v>
       </c>
       <c r="L11" s="1"/>
@@ -1016,19 +1047,22 @@
     </row>
     <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="1">
+        <f t="shared" si="6"/>
         <v>65.5</v>
       </c>
-      <c r="D12" s="5">
-        <v>56.1</v>
-      </c>
-      <c r="E12" s="5">
-        <f t="shared" si="0"/>
+      <c r="D12" s="6">
+        <f t="shared" si="0"/>
+        <v>56.1</v>
+      </c>
+      <c r="E12" s="6">
+        <f t="shared" si="1"/>
         <v>3674.55</v>
       </c>
       <c r="F12" s="4">
@@ -1038,18 +1072,18 @@
         <v>44814</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I12" s="5">
-        <v>10</v>
-      </c>
-      <c r="J12" s="5">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="K12" s="5">
-        <f t="shared" si="3"/>
+      <c r="I12" s="6">
+        <v>10</v>
+      </c>
+      <c r="J12" s="6">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="K12" s="6">
+        <f t="shared" si="4"/>
         <v>3684.55</v>
       </c>
       <c r="L12" s="1"/>
@@ -1057,19 +1091,22 @@
     </row>
     <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="1">
+        <f t="shared" si="6"/>
         <v>65</v>
       </c>
-      <c r="D13" s="5">
-        <v>56.1</v>
-      </c>
-      <c r="E13" s="5">
-        <f t="shared" si="0"/>
+      <c r="D13" s="6">
+        <f t="shared" si="0"/>
+        <v>56.1</v>
+      </c>
+      <c r="E13" s="6">
+        <f t="shared" si="1"/>
         <v>3646.5</v>
       </c>
       <c r="F13" s="4">
@@ -1079,18 +1116,18 @@
         <v>44815</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="I13" s="5">
-        <v>10</v>
-      </c>
-      <c r="J13" s="5">
-        <f t="shared" si="2"/>
+      <c r="I13" s="6">
+        <v>10</v>
+      </c>
+      <c r="J13" s="6">
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="K13" s="5">
-        <f t="shared" si="3"/>
+      <c r="K13" s="6">
+        <f t="shared" si="4"/>
         <v>3666.5</v>
       </c>
       <c r="L13" s="1"/>
@@ -1098,19 +1135,22 @@
     </row>
     <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="1">
+        <f t="shared" si="6"/>
         <v>64.5</v>
       </c>
-      <c r="D14" s="5">
-        <v>56.1</v>
-      </c>
-      <c r="E14" s="5">
-        <f t="shared" si="0"/>
+      <c r="D14" s="6">
+        <f t="shared" si="0"/>
+        <v>56.1</v>
+      </c>
+      <c r="E14" s="6">
+        <f t="shared" si="1"/>
         <v>3618.4500000000003</v>
       </c>
       <c r="F14" s="4">
@@ -1120,18 +1160,18 @@
         <v>44816</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="I14" s="5">
-        <v>10</v>
-      </c>
-      <c r="J14" s="5">
-        <f t="shared" si="2"/>
+      <c r="I14" s="6">
+        <v>10</v>
+      </c>
+      <c r="J14" s="6">
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="K14" s="5">
-        <f t="shared" si="3"/>
+      <c r="K14" s="6">
+        <f t="shared" si="4"/>
         <v>3648.4500000000003</v>
       </c>
       <c r="L14" s="1"/>
@@ -1139,19 +1179,22 @@
     </row>
     <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="1">
+        <f t="shared" si="6"/>
         <v>64</v>
       </c>
-      <c r="D15" s="5">
-        <v>56.1</v>
-      </c>
-      <c r="E15" s="5">
-        <f t="shared" si="0"/>
+      <c r="D15" s="6">
+        <f t="shared" si="0"/>
+        <v>56.1</v>
+      </c>
+      <c r="E15" s="6">
+        <f t="shared" si="1"/>
         <v>3590.4</v>
       </c>
       <c r="F15" s="4">
@@ -1161,18 +1204,18 @@
         <v>44817</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="I15" s="5">
-        <v>10</v>
-      </c>
-      <c r="J15" s="5">
-        <f t="shared" si="2"/>
+      <c r="I15" s="6">
+        <v>10</v>
+      </c>
+      <c r="J15" s="6">
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="K15" s="5">
-        <f t="shared" si="3"/>
+      <c r="K15" s="6">
+        <f t="shared" si="4"/>
         <v>3630.4</v>
       </c>
       <c r="L15" s="1"/>
@@ -1180,19 +1223,22 @@
     </row>
     <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="1">
+        <f t="shared" si="6"/>
         <v>63.5</v>
       </c>
-      <c r="D16" s="5">
-        <v>56.1</v>
-      </c>
-      <c r="E16" s="5">
-        <f t="shared" si="0"/>
+      <c r="D16" s="6">
+        <f t="shared" si="0"/>
+        <v>56.1</v>
+      </c>
+      <c r="E16" s="6">
+        <f t="shared" si="1"/>
         <v>3562.35</v>
       </c>
       <c r="F16" s="4">
@@ -1202,18 +1248,18 @@
         <v>44818</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="I16" s="5">
-        <v>10</v>
-      </c>
-      <c r="J16" s="5">
-        <f t="shared" si="2"/>
+      <c r="I16" s="6">
+        <v>10</v>
+      </c>
+      <c r="J16" s="6">
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="K16" s="5">
-        <f t="shared" si="3"/>
+      <c r="K16" s="6">
+        <f t="shared" si="4"/>
         <v>3612.35</v>
       </c>
       <c r="L16" s="1"/>
@@ -1221,19 +1267,22 @@
     </row>
     <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C17" s="1">
+        <f t="shared" si="6"/>
         <v>63</v>
       </c>
-      <c r="D17" s="5">
-        <v>56.1</v>
-      </c>
-      <c r="E17" s="5">
-        <f t="shared" si="0"/>
+      <c r="D17" s="6">
+        <f t="shared" si="0"/>
+        <v>56.1</v>
+      </c>
+      <c r="E17" s="6">
+        <f t="shared" si="1"/>
         <v>3534.3</v>
       </c>
       <c r="F17" s="4">
@@ -1243,18 +1292,18 @@
         <v>44819</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="I17" s="5">
-        <v>10</v>
-      </c>
-      <c r="J17" s="5">
-        <f t="shared" si="2"/>
+      <c r="I17" s="6">
+        <v>10</v>
+      </c>
+      <c r="J17" s="6">
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="K17" s="5">
-        <f t="shared" si="3"/>
+      <c r="K17" s="6">
+        <f t="shared" si="4"/>
         <v>3594.3</v>
       </c>
       <c r="L17" s="1"/>
@@ -1262,19 +1311,22 @@
     </row>
     <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="1">
+        <f t="shared" si="6"/>
         <v>62.5</v>
       </c>
-      <c r="D18" s="5">
-        <v>56.1</v>
-      </c>
-      <c r="E18" s="5">
-        <f t="shared" si="0"/>
+      <c r="D18" s="6">
+        <f t="shared" si="0"/>
+        <v>56.1</v>
+      </c>
+      <c r="E18" s="6">
+        <f t="shared" si="1"/>
         <v>3506.25</v>
       </c>
       <c r="F18" s="4">
@@ -1284,18 +1336,18 @@
         <v>44820</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="I18" s="5">
-        <v>10</v>
-      </c>
-      <c r="J18" s="5">
-        <f t="shared" si="2"/>
+      <c r="I18" s="6">
+        <v>10</v>
+      </c>
+      <c r="J18" s="6">
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
-      <c r="K18" s="5">
-        <f t="shared" si="3"/>
+      <c r="K18" s="6">
+        <f t="shared" si="4"/>
         <v>3576.25</v>
       </c>
       <c r="L18" s="1"/>
@@ -1303,19 +1355,22 @@
     </row>
     <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C19" s="1">
+        <f t="shared" si="6"/>
         <v>62</v>
       </c>
-      <c r="D19" s="5">
-        <v>56.1</v>
-      </c>
-      <c r="E19" s="5">
-        <f t="shared" si="0"/>
+      <c r="D19" s="6">
+        <f t="shared" si="0"/>
+        <v>56.1</v>
+      </c>
+      <c r="E19" s="6">
+        <f t="shared" si="1"/>
         <v>3478.2000000000003</v>
       </c>
       <c r="F19" s="4">
@@ -1325,18 +1380,18 @@
         <v>44821</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="I19" s="5">
-        <v>10</v>
-      </c>
-      <c r="J19" s="5">
-        <f t="shared" si="2"/>
+      <c r="I19" s="6">
+        <v>10</v>
+      </c>
+      <c r="J19" s="6">
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
-      <c r="K19" s="5">
-        <f t="shared" si="3"/>
+      <c r="K19" s="6">
+        <f t="shared" si="4"/>
         <v>3558.2000000000003</v>
       </c>
       <c r="L19" s="1"/>
@@ -1344,19 +1399,22 @@
     </row>
     <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="1">
+        <f t="shared" si="6"/>
         <v>61.5</v>
       </c>
-      <c r="D20" s="5">
-        <v>56.1</v>
-      </c>
-      <c r="E20" s="5">
-        <f t="shared" si="0"/>
+      <c r="D20" s="6">
+        <f t="shared" si="0"/>
+        <v>56.1</v>
+      </c>
+      <c r="E20" s="6">
+        <f t="shared" si="1"/>
         <v>3450.15</v>
       </c>
       <c r="F20" s="4">
@@ -1366,18 +1424,18 @@
         <v>44822</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="I20" s="5">
-        <v>10</v>
-      </c>
-      <c r="J20" s="5">
-        <f t="shared" si="2"/>
+      <c r="I20" s="6">
+        <v>10</v>
+      </c>
+      <c r="J20" s="6">
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
-      <c r="K20" s="5">
-        <f t="shared" si="3"/>
+      <c r="K20" s="6">
+        <f t="shared" si="4"/>
         <v>3540.15</v>
       </c>
       <c r="L20" s="1"/>
@@ -1385,19 +1443,22 @@
     </row>
     <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C21" s="1">
+        <f t="shared" si="6"/>
         <v>61</v>
       </c>
-      <c r="D21" s="5">
-        <v>56.1</v>
-      </c>
-      <c r="E21" s="5">
-        <f t="shared" si="0"/>
+      <c r="D21" s="6">
+        <f t="shared" si="0"/>
+        <v>56.1</v>
+      </c>
+      <c r="E21" s="6">
+        <f t="shared" si="1"/>
         <v>3422.1</v>
       </c>
       <c r="F21" s="4">
@@ -1407,18 +1468,18 @@
         <v>44823</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="I21" s="5">
-        <v>10</v>
-      </c>
-      <c r="J21" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="I21" s="6">
+        <v>10</v>
+      </c>
+      <c r="J21" s="6">
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="K21" s="5">
-        <f t="shared" si="3"/>
+      <c r="K21" s="6">
+        <f t="shared" si="4"/>
         <v>3522.1</v>
       </c>
       <c r="L21" s="1"/>
@@ -1426,19 +1487,22 @@
     </row>
     <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C22" s="1">
+        <f t="shared" si="6"/>
         <v>60.5</v>
       </c>
-      <c r="D22" s="5">
-        <v>56.1</v>
-      </c>
-      <c r="E22" s="5">
-        <f t="shared" si="0"/>
+      <c r="D22" s="6">
+        <f t="shared" si="0"/>
+        <v>56.1</v>
+      </c>
+      <c r="E22" s="6">
+        <f t="shared" si="1"/>
         <v>3394.05</v>
       </c>
       <c r="F22" s="4">
@@ -1448,18 +1512,18 @@
         <v>44824</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="I22" s="5">
-        <v>10</v>
-      </c>
-      <c r="J22" s="5">
-        <f t="shared" si="2"/>
+      <c r="I22" s="6">
+        <v>10</v>
+      </c>
+      <c r="J22" s="6">
+        <f t="shared" si="3"/>
         <v>110</v>
       </c>
-      <c r="K22" s="5">
-        <f t="shared" si="3"/>
+      <c r="K22" s="6">
+        <f t="shared" si="4"/>
         <v>3504.05</v>
       </c>
       <c r="L22" s="1"/>
@@ -1467,19 +1531,22 @@
     </row>
     <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C23" s="1">
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="D23" s="5">
-        <v>56.1</v>
-      </c>
-      <c r="E23" s="5">
-        <f t="shared" si="0"/>
+      <c r="D23" s="6">
+        <f t="shared" si="0"/>
+        <v>56.1</v>
+      </c>
+      <c r="E23" s="6">
+        <f t="shared" si="1"/>
         <v>3366</v>
       </c>
       <c r="F23" s="4">
@@ -1489,18 +1556,18 @@
         <v>44825</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="I23" s="5">
-        <v>10</v>
-      </c>
-      <c r="J23" s="5">
-        <f t="shared" si="2"/>
+      <c r="I23" s="6">
+        <v>10</v>
+      </c>
+      <c r="J23" s="6">
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
-      <c r="K23" s="5">
-        <f t="shared" si="3"/>
+      <c r="K23" s="6">
+        <f t="shared" si="4"/>
         <v>3486</v>
       </c>
       <c r="L23" s="1"/>
@@ -1508,19 +1575,22 @@
     </row>
     <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C24" s="1">
+        <f t="shared" si="6"/>
         <v>59.5</v>
       </c>
-      <c r="D24" s="5">
-        <v>56.1</v>
-      </c>
-      <c r="E24" s="5">
-        <f t="shared" si="0"/>
+      <c r="D24" s="6">
+        <f t="shared" si="0"/>
+        <v>56.1</v>
+      </c>
+      <c r="E24" s="6">
+        <f t="shared" si="1"/>
         <v>3337.9500000000003</v>
       </c>
       <c r="F24" s="4">
@@ -1530,18 +1600,18 @@
         <v>44826</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="I24" s="5">
-        <v>10</v>
-      </c>
-      <c r="J24" s="5">
-        <f t="shared" si="2"/>
+      <c r="I24" s="6">
+        <v>10</v>
+      </c>
+      <c r="J24" s="6">
+        <f t="shared" si="3"/>
         <v>130</v>
       </c>
-      <c r="K24" s="5">
-        <f t="shared" si="3"/>
+      <c r="K24" s="6">
+        <f t="shared" si="4"/>
         <v>3467.9500000000003</v>
       </c>
       <c r="L24" s="1"/>
@@ -1549,19 +1619,22 @@
     </row>
     <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C25" s="1">
+        <f t="shared" si="6"/>
         <v>59</v>
       </c>
-      <c r="D25" s="5">
-        <v>56.1</v>
-      </c>
-      <c r="E25" s="5">
-        <f t="shared" si="0"/>
+      <c r="D25" s="6">
+        <f t="shared" si="0"/>
+        <v>56.1</v>
+      </c>
+      <c r="E25" s="6">
+        <f t="shared" si="1"/>
         <v>3309.9</v>
       </c>
       <c r="F25" s="4">
@@ -1571,18 +1644,18 @@
         <v>44827</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="I25" s="5">
-        <v>10</v>
-      </c>
-      <c r="J25" s="5">
-        <f t="shared" si="2"/>
+      <c r="I25" s="6">
+        <v>10</v>
+      </c>
+      <c r="J25" s="6">
+        <f t="shared" si="3"/>
         <v>140</v>
       </c>
-      <c r="K25" s="5">
-        <f t="shared" si="3"/>
+      <c r="K25" s="6">
+        <f t="shared" si="4"/>
         <v>3449.9</v>
       </c>
       <c r="L25" s="1"/>
@@ -1590,19 +1663,22 @@
     </row>
     <row r="26" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C26" s="1">
+        <f t="shared" si="6"/>
         <v>58.5</v>
       </c>
-      <c r="D26" s="5">
-        <v>56.1</v>
-      </c>
-      <c r="E26" s="5">
-        <f t="shared" si="0"/>
+      <c r="D26" s="6">
+        <f t="shared" si="0"/>
+        <v>56.1</v>
+      </c>
+      <c r="E26" s="6">
+        <f t="shared" si="1"/>
         <v>3281.85</v>
       </c>
       <c r="F26" s="4">
@@ -1612,18 +1688,18 @@
         <v>44828</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="I26" s="5">
-        <v>10</v>
-      </c>
-      <c r="J26" s="5">
-        <f t="shared" si="2"/>
+      <c r="I26" s="6">
+        <v>10</v>
+      </c>
+      <c r="J26" s="6">
+        <f t="shared" si="3"/>
         <v>150</v>
       </c>
-      <c r="K26" s="5">
-        <f t="shared" si="3"/>
+      <c r="K26" s="6">
+        <f t="shared" si="4"/>
         <v>3431.85</v>
       </c>
       <c r="L26" s="1"/>
@@ -1631,19 +1707,22 @@
     </row>
     <row r="27" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C27" s="1">
+        <f t="shared" si="6"/>
         <v>58</v>
       </c>
-      <c r="D27" s="5">
-        <v>56.1</v>
-      </c>
-      <c r="E27" s="5">
-        <f t="shared" si="0"/>
+      <c r="D27" s="6">
+        <f t="shared" si="0"/>
+        <v>56.1</v>
+      </c>
+      <c r="E27" s="6">
+        <f t="shared" si="1"/>
         <v>3253.8</v>
       </c>
       <c r="F27" s="4">
@@ -1653,18 +1732,18 @@
         <v>44829</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="I27" s="5">
-        <v>10</v>
-      </c>
-      <c r="J27" s="5">
-        <f t="shared" si="2"/>
+      <c r="I27" s="6">
+        <v>10</v>
+      </c>
+      <c r="J27" s="6">
+        <f t="shared" si="3"/>
         <v>160</v>
       </c>
-      <c r="K27" s="5">
-        <f t="shared" si="3"/>
+      <c r="K27" s="6">
+        <f t="shared" si="4"/>
         <v>3413.8</v>
       </c>
       <c r="L27" s="1"/>
@@ -1672,19 +1751,22 @@
     </row>
     <row r="28" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C28" s="1">
+        <f t="shared" si="6"/>
         <v>57.5</v>
       </c>
-      <c r="D28" s="5">
-        <v>56.1</v>
-      </c>
-      <c r="E28" s="5">
-        <f t="shared" si="0"/>
+      <c r="D28" s="6">
+        <f t="shared" si="0"/>
+        <v>56.1</v>
+      </c>
+      <c r="E28" s="6">
+        <f t="shared" si="1"/>
         <v>3225.75</v>
       </c>
       <c r="F28" s="4">
@@ -1694,18 +1776,18 @@
         <v>44830</v>
       </c>
       <c r="H28" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="I28" s="5">
-        <v>10</v>
-      </c>
-      <c r="J28" s="5">
-        <f t="shared" si="2"/>
+      <c r="I28" s="6">
+        <v>10</v>
+      </c>
+      <c r="J28" s="6">
+        <f t="shared" si="3"/>
         <v>170</v>
       </c>
-      <c r="K28" s="5">
-        <f t="shared" si="3"/>
+      <c r="K28" s="6">
+        <f t="shared" si="4"/>
         <v>3395.75</v>
       </c>
       <c r="L28" s="1"/>
@@ -1713,19 +1795,22 @@
     </row>
     <row r="29" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C29" s="1">
+        <f t="shared" si="6"/>
         <v>57</v>
       </c>
-      <c r="D29" s="5">
-        <v>56.1</v>
-      </c>
-      <c r="E29" s="5">
-        <f t="shared" si="0"/>
+      <c r="D29" s="6">
+        <f t="shared" si="0"/>
+        <v>56.1</v>
+      </c>
+      <c r="E29" s="6">
+        <f t="shared" si="1"/>
         <v>3197.7000000000003</v>
       </c>
       <c r="F29" s="4">
@@ -1735,18 +1820,18 @@
         <v>44831</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="I29" s="5">
-        <v>10</v>
-      </c>
-      <c r="J29" s="5">
-        <f t="shared" si="2"/>
+      <c r="I29" s="6">
+        <v>10</v>
+      </c>
+      <c r="J29" s="6">
+        <f t="shared" si="3"/>
         <v>180</v>
       </c>
-      <c r="K29" s="5">
-        <f t="shared" si="3"/>
+      <c r="K29" s="6">
+        <f t="shared" si="4"/>
         <v>3377.7000000000003</v>
       </c>
       <c r="L29" s="1"/>
@@ -1754,19 +1839,22 @@
     </row>
     <row r="30" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C30" s="1">
+        <f t="shared" si="6"/>
         <v>56.5</v>
       </c>
-      <c r="D30" s="5">
-        <v>56.1</v>
-      </c>
-      <c r="E30" s="5">
-        <f t="shared" si="0"/>
+      <c r="D30" s="6">
+        <f t="shared" si="0"/>
+        <v>56.1</v>
+      </c>
+      <c r="E30" s="6">
+        <f t="shared" si="1"/>
         <v>3169.65</v>
       </c>
       <c r="F30" s="4">
@@ -1776,18 +1864,18 @@
         <v>44832</v>
       </c>
       <c r="H30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="I30" s="5">
-        <v>10</v>
-      </c>
-      <c r="J30" s="5">
-        <f t="shared" si="2"/>
+      <c r="I30" s="6">
+        <v>10</v>
+      </c>
+      <c r="J30" s="6">
+        <f t="shared" si="3"/>
         <v>190</v>
       </c>
-      <c r="K30" s="5">
-        <f t="shared" si="3"/>
+      <c r="K30" s="6">
+        <f t="shared" si="4"/>
         <v>3359.65</v>
       </c>
       <c r="L30" s="1"/>
@@ -1795,19 +1883,22 @@
     </row>
     <row r="31" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
+        <f t="shared" si="5"/>
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C31" s="1">
+        <f t="shared" si="6"/>
         <v>56</v>
       </c>
-      <c r="D31" s="5">
-        <v>56.1</v>
-      </c>
-      <c r="E31" s="5">
-        <f t="shared" si="0"/>
+      <c r="D31" s="6">
+        <f t="shared" si="0"/>
+        <v>56.1</v>
+      </c>
+      <c r="E31" s="6">
+        <f t="shared" si="1"/>
         <v>3141.6</v>
       </c>
       <c r="F31" s="4">
@@ -1817,18 +1908,18 @@
         <v>44833</v>
       </c>
       <c r="H31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="I31" s="5">
-        <v>10</v>
-      </c>
-      <c r="J31" s="5">
-        <f t="shared" si="2"/>
+      <c r="I31" s="6">
+        <v>10</v>
+      </c>
+      <c r="J31" s="6">
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="K31" s="5">
-        <f t="shared" si="3"/>
+      <c r="K31" s="6">
+        <f t="shared" si="4"/>
         <v>3341.6</v>
       </c>
       <c r="L31" s="1"/>
@@ -1836,19 +1927,22 @@
     </row>
     <row r="32" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C32" s="1">
+        <f t="shared" si="6"/>
         <v>55.5</v>
       </c>
-      <c r="D32" s="5">
-        <v>56.1</v>
-      </c>
-      <c r="E32" s="5">
-        <f t="shared" si="0"/>
+      <c r="D32" s="6">
+        <f t="shared" si="0"/>
+        <v>56.1</v>
+      </c>
+      <c r="E32" s="6">
+        <f t="shared" si="1"/>
         <v>3113.55</v>
       </c>
       <c r="F32" s="4">
@@ -1858,18 +1952,18 @@
         <v>44834</v>
       </c>
       <c r="H32" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="I32" s="5">
-        <v>10</v>
-      </c>
-      <c r="J32" s="5">
-        <f t="shared" si="2"/>
+      <c r="I32" s="6">
+        <v>10</v>
+      </c>
+      <c r="J32" s="6">
+        <f t="shared" si="3"/>
         <v>210</v>
       </c>
-      <c r="K32" s="5">
-        <f t="shared" si="3"/>
+      <c r="K32" s="6">
+        <f t="shared" si="4"/>
         <v>3323.55</v>
       </c>
       <c r="L32" s="1"/>
@@ -1877,19 +1971,22 @@
     </row>
     <row r="33" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C33" s="1">
+        <f t="shared" si="6"/>
         <v>55</v>
       </c>
-      <c r="D33" s="5">
-        <v>56.1</v>
-      </c>
-      <c r="E33" s="5">
-        <f t="shared" si="0"/>
+      <c r="D33" s="6">
+        <f t="shared" si="0"/>
+        <v>56.1</v>
+      </c>
+      <c r="E33" s="6">
+        <f t="shared" si="1"/>
         <v>3085.5</v>
       </c>
       <c r="F33" s="4">
@@ -1899,18 +1996,18 @@
         <v>44835</v>
       </c>
       <c r="H33" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="I33" s="5">
-        <v>10</v>
-      </c>
-      <c r="J33" s="5">
-        <f t="shared" si="2"/>
+      <c r="I33" s="6">
+        <v>10</v>
+      </c>
+      <c r="J33" s="6">
+        <f t="shared" si="3"/>
         <v>220</v>
       </c>
-      <c r="K33" s="5">
-        <f t="shared" si="3"/>
+      <c r="K33" s="6">
+        <f t="shared" si="4"/>
         <v>3305.5</v>
       </c>
       <c r="L33" s="1"/>
@@ -1918,19 +2015,22 @@
     </row>
     <row r="34" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C34" s="1">
+        <f t="shared" si="6"/>
         <v>54.5</v>
       </c>
-      <c r="D34" s="5">
-        <v>56.1</v>
-      </c>
-      <c r="E34" s="5">
-        <f t="shared" si="0"/>
+      <c r="D34" s="6">
+        <f t="shared" si="0"/>
+        <v>56.1</v>
+      </c>
+      <c r="E34" s="6">
+        <f t="shared" si="1"/>
         <v>3057.4500000000003</v>
       </c>
       <c r="F34" s="4">
@@ -1940,18 +2040,18 @@
         <v>44836</v>
       </c>
       <c r="H34" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="I34" s="5">
-        <v>10</v>
-      </c>
-      <c r="J34" s="5">
-        <f t="shared" si="2"/>
+      <c r="I34" s="6">
+        <v>10</v>
+      </c>
+      <c r="J34" s="6">
+        <f t="shared" si="3"/>
         <v>230</v>
       </c>
-      <c r="K34" s="5">
-        <f t="shared" si="3"/>
+      <c r="K34" s="6">
+        <f t="shared" si="4"/>
         <v>3287.4500000000003</v>
       </c>
       <c r="L34" s="1"/>
@@ -1959,20 +2059,22 @@
     </row>
     <row r="35" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
+        <f t="shared" si="5"/>
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C35" s="1">
+        <f t="shared" si="6"/>
         <v>54</v>
       </c>
-      <c r="D35" s="5">
-        <f>D3/2</f>
+      <c r="D35" s="6">
+        <f>$A$1*0.55</f>
         <v>28.05</v>
       </c>
-      <c r="E35" s="5">
-        <f t="shared" si="0"/>
+      <c r="E35" s="6">
+        <f t="shared" si="1"/>
         <v>1514.7</v>
       </c>
       <c r="F35" s="4">
@@ -1982,18 +2084,18 @@
         <v>44837</v>
       </c>
       <c r="H35" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="I35" s="5">
-        <v>10</v>
-      </c>
-      <c r="J35" s="5">
-        <f t="shared" si="2"/>
+      <c r="I35" s="6">
+        <v>10</v>
+      </c>
+      <c r="J35" s="6">
+        <f t="shared" si="3"/>
         <v>240</v>
       </c>
-      <c r="K35" s="5">
-        <f t="shared" si="3"/>
+      <c r="K35" s="6">
+        <f t="shared" si="4"/>
         <v>1754.7</v>
       </c>
       <c r="L35" s="1"/>
@@ -2001,20 +2103,22 @@
     </row>
     <row r="36" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C36" s="1">
+        <f t="shared" si="6"/>
         <v>53.5</v>
       </c>
-      <c r="D36" s="5">
-        <f t="shared" ref="D36:D38" si="4">D4/2</f>
+      <c r="D36" s="6">
+        <f t="shared" ref="D36:D38" si="7">$A$1*0.55</f>
         <v>28.05</v>
       </c>
-      <c r="E36" s="5">
-        <f t="shared" si="0"/>
+      <c r="E36" s="6">
+        <f t="shared" si="1"/>
         <v>1500.675</v>
       </c>
       <c r="F36" s="4">
@@ -2024,18 +2128,18 @@
         <v>44838</v>
       </c>
       <c r="H36" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="I36" s="5">
-        <v>10</v>
-      </c>
-      <c r="J36" s="5">
-        <f t="shared" si="2"/>
+      <c r="I36" s="6">
+        <v>10</v>
+      </c>
+      <c r="J36" s="6">
+        <f t="shared" si="3"/>
         <v>250</v>
       </c>
-      <c r="K36" s="5">
-        <f t="shared" si="3"/>
+      <c r="K36" s="6">
+        <f t="shared" si="4"/>
         <v>1750.675</v>
       </c>
       <c r="L36" s="1"/>
@@ -2043,20 +2147,22 @@
     </row>
     <row r="37" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C37" s="1">
+        <f t="shared" si="6"/>
         <v>53</v>
       </c>
-      <c r="D37" s="5">
-        <f t="shared" si="4"/>
+      <c r="D37" s="6">
+        <f t="shared" si="7"/>
         <v>28.05</v>
       </c>
-      <c r="E37" s="5">
-        <f t="shared" si="0"/>
+      <c r="E37" s="6">
+        <f t="shared" si="1"/>
         <v>1486.65</v>
       </c>
       <c r="F37" s="4">
@@ -2066,18 +2172,18 @@
         <v>44839</v>
       </c>
       <c r="H37" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="I37" s="5">
-        <v>10</v>
-      </c>
-      <c r="J37" s="5">
-        <f t="shared" si="2"/>
+      <c r="I37" s="6">
+        <v>10</v>
+      </c>
+      <c r="J37" s="6">
+        <f t="shared" si="3"/>
         <v>260</v>
       </c>
-      <c r="K37" s="5">
-        <f t="shared" si="3"/>
+      <c r="K37" s="6">
+        <f t="shared" si="4"/>
         <v>1746.65</v>
       </c>
       <c r="L37" s="1"/>
@@ -2085,20 +2191,22 @@
     </row>
     <row r="38" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
+        <f t="shared" si="5"/>
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C38" s="1">
+        <f t="shared" si="6"/>
         <v>52.5</v>
       </c>
-      <c r="D38" s="5">
-        <f t="shared" si="4"/>
+      <c r="D38" s="6">
+        <f t="shared" si="7"/>
         <v>28.05</v>
       </c>
-      <c r="E38" s="5">
-        <f t="shared" si="0"/>
+      <c r="E38" s="6">
+        <f t="shared" si="1"/>
         <v>1472.625</v>
       </c>
       <c r="F38" s="4">
@@ -2108,18 +2216,18 @@
         <v>44840</v>
       </c>
       <c r="H38" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="I38" s="5">
-        <v>10</v>
-      </c>
-      <c r="J38" s="5">
-        <f t="shared" si="2"/>
+      <c r="I38" s="6">
+        <v>10</v>
+      </c>
+      <c r="J38" s="6">
+        <f t="shared" si="3"/>
         <v>270</v>
       </c>
-      <c r="K38" s="5">
-        <f t="shared" si="3"/>
+      <c r="K38" s="6">
+        <f t="shared" si="4"/>
         <v>1742.625</v>
       </c>
       <c r="L38" s="1"/>
@@ -2143,9 +2251,9 @@
     <row r="40" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C40" s="5">
+        <v>36</v>
+      </c>
+      <c r="C40" s="6">
         <f>SUM(K3:K38)</f>
         <v>121505.85</v>
       </c>
@@ -2163,7 +2271,7 @@
     <row r="41" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
@@ -2183,7 +2291,7 @@
     <row r="42" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2203,7 +2311,7 @@
     <row r="43" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C43" s="5">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_51.xlsx
+++ b/LR3/table_1_51.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sts18\OneDrive\Рабочий стол\УНИК\ИТ (Алексеев)\Лаба3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C130E0C-3AFA-46EE-8C30-772C84A9DAB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC7741E6-2BEE-4FBF-8D94-16B17059205D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BAAC4CC4-DE63-482D-AFD9-09E1FB54160B}"/>
   </bookViews>
@@ -144,9 +144,6 @@
     <t>Куропаткин 12</t>
   </si>
   <si>
-    <t xml:space="preserve"> Общая сумма графы "Итого" руб.</t>
-  </si>
-  <si>
     <t>Средняя площадь, кв.м.</t>
   </si>
   <si>
@@ -187,15 +184,15 @@
   </si>
   <si>
     <t>Итого, руб.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Общая сумма, руб.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -254,14 +251,14 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -580,7 +577,7 @@
   <dimension ref="A1:M65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,43 +613,43 @@
     </row>
     <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -661,11 +658,11 @@
       <c r="C3" s="1">
         <v>70</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <f>$A$1*1.1</f>
         <v>56.1</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <f>D3*C3</f>
         <v>3927</v>
       </c>
@@ -679,14 +676,14 @@
         <f>IF(G3&lt;=F3,0,G3-F3)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="6">
-        <v>10</v>
-      </c>
-      <c r="J3" s="6">
+      <c r="I3" s="5">
+        <v>10</v>
+      </c>
+      <c r="J3" s="5">
         <f>I3*H3</f>
         <v>0</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="5">
         <f>J3+E3</f>
         <v>3927</v>
       </c>
@@ -705,11 +702,11 @@
         <f>C3-0.5</f>
         <v>69.5</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <f t="shared" ref="D4:D34" si="0">$A$1*1.1</f>
         <v>56.1</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <f t="shared" ref="E4:E38" si="1">D4*C4</f>
         <v>3898.9500000000003</v>
       </c>
@@ -723,14 +720,14 @@
         <f t="shared" ref="H4:H38" si="2">IF(G4&lt;=F4,0,G4-F4)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="6">
-        <v>10</v>
-      </c>
-      <c r="J4" s="6">
+      <c r="I4" s="5">
+        <v>10</v>
+      </c>
+      <c r="J4" s="5">
         <f t="shared" ref="J4:J38" si="3">I4*H4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="5">
         <f t="shared" ref="K4:K38" si="4">J4+E4</f>
         <v>3898.9500000000003</v>
       </c>
@@ -749,11 +746,11 @@
         <f>C4-0.5</f>
         <v>69</v>
       </c>
-      <c r="D5" s="6">
-        <f t="shared" si="0"/>
-        <v>56.1</v>
-      </c>
-      <c r="E5" s="6">
+      <c r="D5" s="5">
+        <f t="shared" si="0"/>
+        <v>56.1</v>
+      </c>
+      <c r="E5" s="5">
         <f t="shared" si="1"/>
         <v>3870.9</v>
       </c>
@@ -767,14 +764,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I5" s="6">
-        <v>10</v>
-      </c>
-      <c r="J5" s="6">
+      <c r="I5" s="5">
+        <v>10</v>
+      </c>
+      <c r="J5" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="5">
         <f t="shared" si="4"/>
         <v>3870.9</v>
       </c>
@@ -793,11 +790,11 @@
         <f t="shared" ref="C6:C38" si="6">C5-0.5</f>
         <v>68.5</v>
       </c>
-      <c r="D6" s="6">
-        <f t="shared" si="0"/>
-        <v>56.1</v>
-      </c>
-      <c r="E6" s="6">
+      <c r="D6" s="5">
+        <f t="shared" si="0"/>
+        <v>56.1</v>
+      </c>
+      <c r="E6" s="5">
         <f t="shared" si="1"/>
         <v>3842.85</v>
       </c>
@@ -811,14 +808,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I6" s="6">
-        <v>10</v>
-      </c>
-      <c r="J6" s="6">
+      <c r="I6" s="5">
+        <v>10</v>
+      </c>
+      <c r="J6" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="5">
         <f t="shared" si="4"/>
         <v>3842.85</v>
       </c>
@@ -837,11 +834,11 @@
         <f t="shared" si="6"/>
         <v>68</v>
       </c>
-      <c r="D7" s="6">
-        <f t="shared" si="0"/>
-        <v>56.1</v>
-      </c>
-      <c r="E7" s="6">
+      <c r="D7" s="5">
+        <f t="shared" si="0"/>
+        <v>56.1</v>
+      </c>
+      <c r="E7" s="5">
         <f t="shared" si="1"/>
         <v>3814.8</v>
       </c>
@@ -855,14 +852,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I7" s="6">
-        <v>10</v>
-      </c>
-      <c r="J7" s="6">
+      <c r="I7" s="5">
+        <v>10</v>
+      </c>
+      <c r="J7" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="5">
         <f t="shared" si="4"/>
         <v>3814.8</v>
       </c>
@@ -881,11 +878,11 @@
         <f t="shared" si="6"/>
         <v>67.5</v>
       </c>
-      <c r="D8" s="6">
-        <f t="shared" si="0"/>
-        <v>56.1</v>
-      </c>
-      <c r="E8" s="6">
+      <c r="D8" s="5">
+        <f t="shared" si="0"/>
+        <v>56.1</v>
+      </c>
+      <c r="E8" s="5">
         <f t="shared" si="1"/>
         <v>3786.75</v>
       </c>
@@ -899,14 +896,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I8" s="6">
-        <v>10</v>
-      </c>
-      <c r="J8" s="6">
+      <c r="I8" s="5">
+        <v>10</v>
+      </c>
+      <c r="J8" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="5">
         <f t="shared" si="4"/>
         <v>3786.75</v>
       </c>
@@ -925,11 +922,11 @@
         <f t="shared" si="6"/>
         <v>67</v>
       </c>
-      <c r="D9" s="6">
-        <f t="shared" si="0"/>
-        <v>56.1</v>
-      </c>
-      <c r="E9" s="6">
+      <c r="D9" s="5">
+        <f t="shared" si="0"/>
+        <v>56.1</v>
+      </c>
+      <c r="E9" s="5">
         <f t="shared" si="1"/>
         <v>3758.7000000000003</v>
       </c>
@@ -943,14 +940,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I9" s="6">
-        <v>10</v>
-      </c>
-      <c r="J9" s="6">
+      <c r="I9" s="5">
+        <v>10</v>
+      </c>
+      <c r="J9" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="5">
         <f t="shared" si="4"/>
         <v>3758.7000000000003</v>
       </c>
@@ -969,11 +966,11 @@
         <f t="shared" si="6"/>
         <v>66.5</v>
       </c>
-      <c r="D10" s="6">
-        <f t="shared" si="0"/>
-        <v>56.1</v>
-      </c>
-      <c r="E10" s="6">
+      <c r="D10" s="5">
+        <f t="shared" si="0"/>
+        <v>56.1</v>
+      </c>
+      <c r="E10" s="5">
         <f t="shared" si="1"/>
         <v>3730.65</v>
       </c>
@@ -987,14 +984,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I10" s="6">
-        <v>10</v>
-      </c>
-      <c r="J10" s="6">
+      <c r="I10" s="5">
+        <v>10</v>
+      </c>
+      <c r="J10" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="5">
         <f t="shared" si="4"/>
         <v>3730.65</v>
       </c>
@@ -1013,11 +1010,11 @@
         <f t="shared" si="6"/>
         <v>66</v>
       </c>
-      <c r="D11" s="6">
-        <f t="shared" si="0"/>
-        <v>56.1</v>
-      </c>
-      <c r="E11" s="6">
+      <c r="D11" s="5">
+        <f t="shared" si="0"/>
+        <v>56.1</v>
+      </c>
+      <c r="E11" s="5">
         <f t="shared" si="1"/>
         <v>3702.6</v>
       </c>
@@ -1031,14 +1028,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I11" s="6">
-        <v>10</v>
-      </c>
-      <c r="J11" s="6">
+      <c r="I11" s="5">
+        <v>10</v>
+      </c>
+      <c r="J11" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="5">
         <f t="shared" si="4"/>
         <v>3702.6</v>
       </c>
@@ -1057,11 +1054,11 @@
         <f t="shared" si="6"/>
         <v>65.5</v>
       </c>
-      <c r="D12" s="6">
-        <f t="shared" si="0"/>
-        <v>56.1</v>
-      </c>
-      <c r="E12" s="6">
+      <c r="D12" s="5">
+        <f t="shared" si="0"/>
+        <v>56.1</v>
+      </c>
+      <c r="E12" s="5">
         <f t="shared" si="1"/>
         <v>3674.55</v>
       </c>
@@ -1075,14 +1072,14 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I12" s="6">
-        <v>10</v>
-      </c>
-      <c r="J12" s="6">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="K12" s="6">
+      <c r="I12" s="5">
+        <v>10</v>
+      </c>
+      <c r="J12" s="5">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="K12" s="5">
         <f t="shared" si="4"/>
         <v>3684.55</v>
       </c>
@@ -1101,11 +1098,11 @@
         <f t="shared" si="6"/>
         <v>65</v>
       </c>
-      <c r="D13" s="6">
-        <f t="shared" si="0"/>
-        <v>56.1</v>
-      </c>
-      <c r="E13" s="6">
+      <c r="D13" s="5">
+        <f t="shared" si="0"/>
+        <v>56.1</v>
+      </c>
+      <c r="E13" s="5">
         <f t="shared" si="1"/>
         <v>3646.5</v>
       </c>
@@ -1119,14 +1116,14 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="I13" s="6">
-        <v>10</v>
-      </c>
-      <c r="J13" s="6">
+      <c r="I13" s="5">
+        <v>10</v>
+      </c>
+      <c r="J13" s="5">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="5">
         <f t="shared" si="4"/>
         <v>3666.5</v>
       </c>
@@ -1145,11 +1142,11 @@
         <f t="shared" si="6"/>
         <v>64.5</v>
       </c>
-      <c r="D14" s="6">
-        <f t="shared" si="0"/>
-        <v>56.1</v>
-      </c>
-      <c r="E14" s="6">
+      <c r="D14" s="5">
+        <f t="shared" si="0"/>
+        <v>56.1</v>
+      </c>
+      <c r="E14" s="5">
         <f t="shared" si="1"/>
         <v>3618.4500000000003</v>
       </c>
@@ -1163,14 +1160,14 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="I14" s="6">
-        <v>10</v>
-      </c>
-      <c r="J14" s="6">
+      <c r="I14" s="5">
+        <v>10</v>
+      </c>
+      <c r="J14" s="5">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="5">
         <f t="shared" si="4"/>
         <v>3648.4500000000003</v>
       </c>
@@ -1189,11 +1186,11 @@
         <f t="shared" si="6"/>
         <v>64</v>
       </c>
-      <c r="D15" s="6">
-        <f t="shared" si="0"/>
-        <v>56.1</v>
-      </c>
-      <c r="E15" s="6">
+      <c r="D15" s="5">
+        <f t="shared" si="0"/>
+        <v>56.1</v>
+      </c>
+      <c r="E15" s="5">
         <f t="shared" si="1"/>
         <v>3590.4</v>
       </c>
@@ -1207,14 +1204,14 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="I15" s="6">
-        <v>10</v>
-      </c>
-      <c r="J15" s="6">
+      <c r="I15" s="5">
+        <v>10</v>
+      </c>
+      <c r="J15" s="5">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K15" s="5">
         <f t="shared" si="4"/>
         <v>3630.4</v>
       </c>
@@ -1233,11 +1230,11 @@
         <f t="shared" si="6"/>
         <v>63.5</v>
       </c>
-      <c r="D16" s="6">
-        <f t="shared" si="0"/>
-        <v>56.1</v>
-      </c>
-      <c r="E16" s="6">
+      <c r="D16" s="5">
+        <f t="shared" si="0"/>
+        <v>56.1</v>
+      </c>
+      <c r="E16" s="5">
         <f t="shared" si="1"/>
         <v>3562.35</v>
       </c>
@@ -1251,14 +1248,14 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="I16" s="6">
-        <v>10</v>
-      </c>
-      <c r="J16" s="6">
+      <c r="I16" s="5">
+        <v>10</v>
+      </c>
+      <c r="J16" s="5">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K16" s="5">
         <f t="shared" si="4"/>
         <v>3612.35</v>
       </c>
@@ -1277,11 +1274,11 @@
         <f t="shared" si="6"/>
         <v>63</v>
       </c>
-      <c r="D17" s="6">
-        <f t="shared" si="0"/>
-        <v>56.1</v>
-      </c>
-      <c r="E17" s="6">
+      <c r="D17" s="5">
+        <f t="shared" si="0"/>
+        <v>56.1</v>
+      </c>
+      <c r="E17" s="5">
         <f t="shared" si="1"/>
         <v>3534.3</v>
       </c>
@@ -1295,14 +1292,14 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="I17" s="6">
-        <v>10</v>
-      </c>
-      <c r="J17" s="6">
+      <c r="I17" s="5">
+        <v>10</v>
+      </c>
+      <c r="J17" s="5">
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="K17" s="6">
+      <c r="K17" s="5">
         <f t="shared" si="4"/>
         <v>3594.3</v>
       </c>
@@ -1321,11 +1318,11 @@
         <f t="shared" si="6"/>
         <v>62.5</v>
       </c>
-      <c r="D18" s="6">
-        <f t="shared" si="0"/>
-        <v>56.1</v>
-      </c>
-      <c r="E18" s="6">
+      <c r="D18" s="5">
+        <f t="shared" si="0"/>
+        <v>56.1</v>
+      </c>
+      <c r="E18" s="5">
         <f t="shared" si="1"/>
         <v>3506.25</v>
       </c>
@@ -1339,14 +1336,14 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="I18" s="6">
-        <v>10</v>
-      </c>
-      <c r="J18" s="6">
+      <c r="I18" s="5">
+        <v>10</v>
+      </c>
+      <c r="J18" s="5">
         <f t="shared" si="3"/>
         <v>70</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K18" s="5">
         <f t="shared" si="4"/>
         <v>3576.25</v>
       </c>
@@ -1365,11 +1362,11 @@
         <f t="shared" si="6"/>
         <v>62</v>
       </c>
-      <c r="D19" s="6">
-        <f t="shared" si="0"/>
-        <v>56.1</v>
-      </c>
-      <c r="E19" s="6">
+      <c r="D19" s="5">
+        <f t="shared" si="0"/>
+        <v>56.1</v>
+      </c>
+      <c r="E19" s="5">
         <f t="shared" si="1"/>
         <v>3478.2000000000003</v>
       </c>
@@ -1383,14 +1380,14 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="I19" s="6">
-        <v>10</v>
-      </c>
-      <c r="J19" s="6">
+      <c r="I19" s="5">
+        <v>10</v>
+      </c>
+      <c r="J19" s="5">
         <f t="shared" si="3"/>
         <v>80</v>
       </c>
-      <c r="K19" s="6">
+      <c r="K19" s="5">
         <f t="shared" si="4"/>
         <v>3558.2000000000003</v>
       </c>
@@ -1409,11 +1406,11 @@
         <f t="shared" si="6"/>
         <v>61.5</v>
       </c>
-      <c r="D20" s="6">
-        <f t="shared" si="0"/>
-        <v>56.1</v>
-      </c>
-      <c r="E20" s="6">
+      <c r="D20" s="5">
+        <f t="shared" si="0"/>
+        <v>56.1</v>
+      </c>
+      <c r="E20" s="5">
         <f t="shared" si="1"/>
         <v>3450.15</v>
       </c>
@@ -1427,14 +1424,14 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="I20" s="6">
-        <v>10</v>
-      </c>
-      <c r="J20" s="6">
+      <c r="I20" s="5">
+        <v>10</v>
+      </c>
+      <c r="J20" s="5">
         <f t="shared" si="3"/>
         <v>90</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K20" s="5">
         <f t="shared" si="4"/>
         <v>3540.15</v>
       </c>
@@ -1453,11 +1450,11 @@
         <f t="shared" si="6"/>
         <v>61</v>
       </c>
-      <c r="D21" s="6">
-        <f t="shared" si="0"/>
-        <v>56.1</v>
-      </c>
-      <c r="E21" s="6">
+      <c r="D21" s="5">
+        <f t="shared" si="0"/>
+        <v>56.1</v>
+      </c>
+      <c r="E21" s="5">
         <f t="shared" si="1"/>
         <v>3422.1</v>
       </c>
@@ -1471,14 +1468,14 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="I21" s="6">
-        <v>10</v>
-      </c>
-      <c r="J21" s="6">
+      <c r="I21" s="5">
+        <v>10</v>
+      </c>
+      <c r="J21" s="5">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="K21" s="6">
+      <c r="K21" s="5">
         <f t="shared" si="4"/>
         <v>3522.1</v>
       </c>
@@ -1497,11 +1494,11 @@
         <f t="shared" si="6"/>
         <v>60.5</v>
       </c>
-      <c r="D22" s="6">
-        <f t="shared" si="0"/>
-        <v>56.1</v>
-      </c>
-      <c r="E22" s="6">
+      <c r="D22" s="5">
+        <f t="shared" si="0"/>
+        <v>56.1</v>
+      </c>
+      <c r="E22" s="5">
         <f t="shared" si="1"/>
         <v>3394.05</v>
       </c>
@@ -1515,14 +1512,14 @@
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="I22" s="6">
-        <v>10</v>
-      </c>
-      <c r="J22" s="6">
+      <c r="I22" s="5">
+        <v>10</v>
+      </c>
+      <c r="J22" s="5">
         <f t="shared" si="3"/>
         <v>110</v>
       </c>
-      <c r="K22" s="6">
+      <c r="K22" s="5">
         <f t="shared" si="4"/>
         <v>3504.05</v>
       </c>
@@ -1541,11 +1538,11 @@
         <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="D23" s="6">
-        <f t="shared" si="0"/>
-        <v>56.1</v>
-      </c>
-      <c r="E23" s="6">
+      <c r="D23" s="5">
+        <f t="shared" si="0"/>
+        <v>56.1</v>
+      </c>
+      <c r="E23" s="5">
         <f t="shared" si="1"/>
         <v>3366</v>
       </c>
@@ -1559,14 +1556,14 @@
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="I23" s="6">
-        <v>10</v>
-      </c>
-      <c r="J23" s="6">
+      <c r="I23" s="5">
+        <v>10</v>
+      </c>
+      <c r="J23" s="5">
         <f t="shared" si="3"/>
         <v>120</v>
       </c>
-      <c r="K23" s="6">
+      <c r="K23" s="5">
         <f t="shared" si="4"/>
         <v>3486</v>
       </c>
@@ -1585,11 +1582,11 @@
         <f t="shared" si="6"/>
         <v>59.5</v>
       </c>
-      <c r="D24" s="6">
-        <f t="shared" si="0"/>
-        <v>56.1</v>
-      </c>
-      <c r="E24" s="6">
+      <c r="D24" s="5">
+        <f t="shared" si="0"/>
+        <v>56.1</v>
+      </c>
+      <c r="E24" s="5">
         <f t="shared" si="1"/>
         <v>3337.9500000000003</v>
       </c>
@@ -1603,14 +1600,14 @@
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="I24" s="6">
-        <v>10</v>
-      </c>
-      <c r="J24" s="6">
+      <c r="I24" s="5">
+        <v>10</v>
+      </c>
+      <c r="J24" s="5">
         <f t="shared" si="3"/>
         <v>130</v>
       </c>
-      <c r="K24" s="6">
+      <c r="K24" s="5">
         <f t="shared" si="4"/>
         <v>3467.9500000000003</v>
       </c>
@@ -1629,11 +1626,11 @@
         <f t="shared" si="6"/>
         <v>59</v>
       </c>
-      <c r="D25" s="6">
-        <f t="shared" si="0"/>
-        <v>56.1</v>
-      </c>
-      <c r="E25" s="6">
+      <c r="D25" s="5">
+        <f t="shared" si="0"/>
+        <v>56.1</v>
+      </c>
+      <c r="E25" s="5">
         <f t="shared" si="1"/>
         <v>3309.9</v>
       </c>
@@ -1647,14 +1644,14 @@
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="I25" s="6">
-        <v>10</v>
-      </c>
-      <c r="J25" s="6">
+      <c r="I25" s="5">
+        <v>10</v>
+      </c>
+      <c r="J25" s="5">
         <f t="shared" si="3"/>
         <v>140</v>
       </c>
-      <c r="K25" s="6">
+      <c r="K25" s="5">
         <f t="shared" si="4"/>
         <v>3449.9</v>
       </c>
@@ -1673,11 +1670,11 @@
         <f t="shared" si="6"/>
         <v>58.5</v>
       </c>
-      <c r="D26" s="6">
-        <f t="shared" si="0"/>
-        <v>56.1</v>
-      </c>
-      <c r="E26" s="6">
+      <c r="D26" s="5">
+        <f t="shared" si="0"/>
+        <v>56.1</v>
+      </c>
+      <c r="E26" s="5">
         <f t="shared" si="1"/>
         <v>3281.85</v>
       </c>
@@ -1691,14 +1688,14 @@
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="I26" s="6">
-        <v>10</v>
-      </c>
-      <c r="J26" s="6">
+      <c r="I26" s="5">
+        <v>10</v>
+      </c>
+      <c r="J26" s="5">
         <f t="shared" si="3"/>
         <v>150</v>
       </c>
-      <c r="K26" s="6">
+      <c r="K26" s="5">
         <f t="shared" si="4"/>
         <v>3431.85</v>
       </c>
@@ -1717,11 +1714,11 @@
         <f t="shared" si="6"/>
         <v>58</v>
       </c>
-      <c r="D27" s="6">
-        <f t="shared" si="0"/>
-        <v>56.1</v>
-      </c>
-      <c r="E27" s="6">
+      <c r="D27" s="5">
+        <f t="shared" si="0"/>
+        <v>56.1</v>
+      </c>
+      <c r="E27" s="5">
         <f t="shared" si="1"/>
         <v>3253.8</v>
       </c>
@@ -1735,14 +1732,14 @@
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="I27" s="6">
-        <v>10</v>
-      </c>
-      <c r="J27" s="6">
+      <c r="I27" s="5">
+        <v>10</v>
+      </c>
+      <c r="J27" s="5">
         <f t="shared" si="3"/>
         <v>160</v>
       </c>
-      <c r="K27" s="6">
+      <c r="K27" s="5">
         <f t="shared" si="4"/>
         <v>3413.8</v>
       </c>
@@ -1761,11 +1758,11 @@
         <f t="shared" si="6"/>
         <v>57.5</v>
       </c>
-      <c r="D28" s="6">
-        <f t="shared" si="0"/>
-        <v>56.1</v>
-      </c>
-      <c r="E28" s="6">
+      <c r="D28" s="5">
+        <f t="shared" si="0"/>
+        <v>56.1</v>
+      </c>
+      <c r="E28" s="5">
         <f t="shared" si="1"/>
         <v>3225.75</v>
       </c>
@@ -1779,14 +1776,14 @@
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="I28" s="6">
-        <v>10</v>
-      </c>
-      <c r="J28" s="6">
+      <c r="I28" s="5">
+        <v>10</v>
+      </c>
+      <c r="J28" s="5">
         <f t="shared" si="3"/>
         <v>170</v>
       </c>
-      <c r="K28" s="6">
+      <c r="K28" s="5">
         <f t="shared" si="4"/>
         <v>3395.75</v>
       </c>
@@ -1805,11 +1802,11 @@
         <f t="shared" si="6"/>
         <v>57</v>
       </c>
-      <c r="D29" s="6">
-        <f t="shared" si="0"/>
-        <v>56.1</v>
-      </c>
-      <c r="E29" s="6">
+      <c r="D29" s="5">
+        <f t="shared" si="0"/>
+        <v>56.1</v>
+      </c>
+      <c r="E29" s="5">
         <f t="shared" si="1"/>
         <v>3197.7000000000003</v>
       </c>
@@ -1823,14 +1820,14 @@
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="I29" s="6">
-        <v>10</v>
-      </c>
-      <c r="J29" s="6">
+      <c r="I29" s="5">
+        <v>10</v>
+      </c>
+      <c r="J29" s="5">
         <f t="shared" si="3"/>
         <v>180</v>
       </c>
-      <c r="K29" s="6">
+      <c r="K29" s="5">
         <f t="shared" si="4"/>
         <v>3377.7000000000003</v>
       </c>
@@ -1849,11 +1846,11 @@
         <f t="shared" si="6"/>
         <v>56.5</v>
       </c>
-      <c r="D30" s="6">
-        <f t="shared" si="0"/>
-        <v>56.1</v>
-      </c>
-      <c r="E30" s="6">
+      <c r="D30" s="5">
+        <f t="shared" si="0"/>
+        <v>56.1</v>
+      </c>
+      <c r="E30" s="5">
         <f t="shared" si="1"/>
         <v>3169.65</v>
       </c>
@@ -1867,14 +1864,14 @@
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="I30" s="6">
-        <v>10</v>
-      </c>
-      <c r="J30" s="6">
+      <c r="I30" s="5">
+        <v>10</v>
+      </c>
+      <c r="J30" s="5">
         <f t="shared" si="3"/>
         <v>190</v>
       </c>
-      <c r="K30" s="6">
+      <c r="K30" s="5">
         <f t="shared" si="4"/>
         <v>3359.65</v>
       </c>
@@ -1893,11 +1890,11 @@
         <f t="shared" si="6"/>
         <v>56</v>
       </c>
-      <c r="D31" s="6">
-        <f t="shared" si="0"/>
-        <v>56.1</v>
-      </c>
-      <c r="E31" s="6">
+      <c r="D31" s="5">
+        <f t="shared" si="0"/>
+        <v>56.1</v>
+      </c>
+      <c r="E31" s="5">
         <f t="shared" si="1"/>
         <v>3141.6</v>
       </c>
@@ -1911,14 +1908,14 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="I31" s="6">
-        <v>10</v>
-      </c>
-      <c r="J31" s="6">
+      <c r="I31" s="5">
+        <v>10</v>
+      </c>
+      <c r="J31" s="5">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="K31" s="6">
+      <c r="K31" s="5">
         <f t="shared" si="4"/>
         <v>3341.6</v>
       </c>
@@ -1937,11 +1934,11 @@
         <f t="shared" si="6"/>
         <v>55.5</v>
       </c>
-      <c r="D32" s="6">
-        <f t="shared" si="0"/>
-        <v>56.1</v>
-      </c>
-      <c r="E32" s="6">
+      <c r="D32" s="5">
+        <f t="shared" si="0"/>
+        <v>56.1</v>
+      </c>
+      <c r="E32" s="5">
         <f t="shared" si="1"/>
         <v>3113.55</v>
       </c>
@@ -1955,14 +1952,14 @@
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="I32" s="6">
-        <v>10</v>
-      </c>
-      <c r="J32" s="6">
+      <c r="I32" s="5">
+        <v>10</v>
+      </c>
+      <c r="J32" s="5">
         <f t="shared" si="3"/>
         <v>210</v>
       </c>
-      <c r="K32" s="6">
+      <c r="K32" s="5">
         <f t="shared" si="4"/>
         <v>3323.55</v>
       </c>
@@ -1981,11 +1978,11 @@
         <f t="shared" si="6"/>
         <v>55</v>
       </c>
-      <c r="D33" s="6">
-        <f t="shared" si="0"/>
-        <v>56.1</v>
-      </c>
-      <c r="E33" s="6">
+      <c r="D33" s="5">
+        <f t="shared" si="0"/>
+        <v>56.1</v>
+      </c>
+      <c r="E33" s="5">
         <f t="shared" si="1"/>
         <v>3085.5</v>
       </c>
@@ -1999,14 +1996,14 @@
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="I33" s="6">
-        <v>10</v>
-      </c>
-      <c r="J33" s="6">
+      <c r="I33" s="5">
+        <v>10</v>
+      </c>
+      <c r="J33" s="5">
         <f t="shared" si="3"/>
         <v>220</v>
       </c>
-      <c r="K33" s="6">
+      <c r="K33" s="5">
         <f t="shared" si="4"/>
         <v>3305.5</v>
       </c>
@@ -2025,11 +2022,11 @@
         <f t="shared" si="6"/>
         <v>54.5</v>
       </c>
-      <c r="D34" s="6">
-        <f t="shared" si="0"/>
-        <v>56.1</v>
-      </c>
-      <c r="E34" s="6">
+      <c r="D34" s="5">
+        <f t="shared" si="0"/>
+        <v>56.1</v>
+      </c>
+      <c r="E34" s="5">
         <f t="shared" si="1"/>
         <v>3057.4500000000003</v>
       </c>
@@ -2043,14 +2040,14 @@
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="I34" s="6">
-        <v>10</v>
-      </c>
-      <c r="J34" s="6">
+      <c r="I34" s="5">
+        <v>10</v>
+      </c>
+      <c r="J34" s="5">
         <f t="shared" si="3"/>
         <v>230</v>
       </c>
-      <c r="K34" s="6">
+      <c r="K34" s="5">
         <f t="shared" si="4"/>
         <v>3287.4500000000003</v>
       </c>
@@ -2069,11 +2066,11 @@
         <f t="shared" si="6"/>
         <v>54</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35" s="5">
         <f>$A$1*0.55</f>
         <v>28.05</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E35" s="5">
         <f t="shared" si="1"/>
         <v>1514.7</v>
       </c>
@@ -2087,14 +2084,14 @@
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="I35" s="6">
-        <v>10</v>
-      </c>
-      <c r="J35" s="6">
+      <c r="I35" s="5">
+        <v>10</v>
+      </c>
+      <c r="J35" s="5">
         <f t="shared" si="3"/>
         <v>240</v>
       </c>
-      <c r="K35" s="6">
+      <c r="K35" s="5">
         <f t="shared" si="4"/>
         <v>1754.7</v>
       </c>
@@ -2113,11 +2110,11 @@
         <f t="shared" si="6"/>
         <v>53.5</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="5">
         <f t="shared" ref="D36:D38" si="7">$A$1*0.55</f>
         <v>28.05</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36" s="5">
         <f t="shared" si="1"/>
         <v>1500.675</v>
       </c>
@@ -2131,14 +2128,14 @@
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="I36" s="6">
-        <v>10</v>
-      </c>
-      <c r="J36" s="6">
+      <c r="I36" s="5">
+        <v>10</v>
+      </c>
+      <c r="J36" s="5">
         <f t="shared" si="3"/>
         <v>250</v>
       </c>
-      <c r="K36" s="6">
+      <c r="K36" s="5">
         <f t="shared" si="4"/>
         <v>1750.675</v>
       </c>
@@ -2157,11 +2154,11 @@
         <f t="shared" si="6"/>
         <v>53</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37" s="5">
         <f t="shared" si="7"/>
         <v>28.05</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E37" s="5">
         <f t="shared" si="1"/>
         <v>1486.65</v>
       </c>
@@ -2175,14 +2172,14 @@
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="I37" s="6">
-        <v>10</v>
-      </c>
-      <c r="J37" s="6">
+      <c r="I37" s="5">
+        <v>10</v>
+      </c>
+      <c r="J37" s="5">
         <f t="shared" si="3"/>
         <v>260</v>
       </c>
-      <c r="K37" s="6">
+      <c r="K37" s="5">
         <f t="shared" si="4"/>
         <v>1746.65</v>
       </c>
@@ -2201,11 +2198,11 @@
         <f t="shared" si="6"/>
         <v>52.5</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38" s="5">
         <f t="shared" si="7"/>
         <v>28.05</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38" s="5">
         <f t="shared" si="1"/>
         <v>1472.625</v>
       </c>
@@ -2219,14 +2216,14 @@
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="I38" s="6">
-        <v>10</v>
-      </c>
-      <c r="J38" s="6">
+      <c r="I38" s="5">
+        <v>10</v>
+      </c>
+      <c r="J38" s="5">
         <f t="shared" si="3"/>
         <v>270</v>
       </c>
-      <c r="K38" s="6">
+      <c r="K38" s="5">
         <f t="shared" si="4"/>
         <v>1742.625</v>
       </c>
@@ -2251,9 +2248,9 @@
     <row r="40" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C40" s="6">
+        <v>50</v>
+      </c>
+      <c r="C40" s="7">
         <f>SUM(K3:K38)</f>
         <v>121505.85</v>
       </c>
@@ -2271,9 +2268,9 @@
     <row r="41" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C41" s="1">
+        <v>36</v>
+      </c>
+      <c r="C41" s="7">
         <f>AVERAGE(C3:C38)</f>
         <v>61.25</v>
       </c>
@@ -2291,7 +2288,7 @@
     <row r="42" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2311,7 +2308,7 @@
     <row r="43" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C43" s="5">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_51.xlsx
+++ b/LR3/table_1_51.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC7741E6-2BEE-4FBF-8D94-16B17059205D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134CF996-B787-4E2B-A697-845CCEEA13E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BAAC4CC4-DE63-482D-AFD9-09E1FB54160B}"/>
   </bookViews>
@@ -254,11 +254,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -577,7 +577,7 @@
   <dimension ref="A1:M65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -649,7 +649,7 @@
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="7">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2250,9 +2250,9 @@
       <c r="B40" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C40" s="7">
-        <f>SUM(K3:K38)</f>
-        <v>121505.85</v>
+      <c r="C40" s="5">
+        <f>ROUNDUP(SUM(K3:K38),)</f>
+        <v>121506</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -2270,7 +2270,7 @@
       <c r="B41" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C41" s="6">
         <f>AVERAGE(C3:C38)</f>
         <v>61.25</v>
       </c>

--- a/LR3/table_1_51.xlsx
+++ b/LR3/table_1_51.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{778B0E2E-9EC7-43E9-93E6-784815EC2D28}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A446734-E54C-4DC2-A1C9-AF6FF7C9EBAB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="51">
   <si>
     <t>Фамилия квартиросъёмщика</t>
   </si>
@@ -195,24 +195,12 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -232,13 +220,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -519,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L44"/>
+  <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,10 +565,10 @@
       <c r="K2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="1"/>
+      <c r="L2" s="5"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -623,7 +609,7 @@
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="4">
         <f>A3+1</f>
         <v>2</v>
       </c>
@@ -666,7 +652,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="4">
         <f t="shared" ref="A5:A37" si="5">A4+1</f>
         <v>3</v>
       </c>
@@ -709,7 +695,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="A6" s="4">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
@@ -752,7 +738,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="4">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
@@ -795,7 +781,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="4">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
@@ -838,7 +824,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9" s="4">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
@@ -881,7 +867,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="A10" s="4">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
@@ -924,7 +910,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="A11" s="4">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
@@ -967,7 +953,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+      <c r="A12" s="4">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
@@ -1010,7 +996,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+      <c r="A13" s="4">
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
@@ -1053,7 +1039,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+      <c r="A14" s="4">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
@@ -1096,7 +1082,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+      <c r="A15" s="4">
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
@@ -1139,7 +1125,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
+      <c r="A16" s="4">
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
@@ -1182,7 +1168,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
+      <c r="A17" s="4">
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
@@ -1225,7 +1211,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
+      <c r="A18" s="4">
         <f t="shared" si="5"/>
         <v>16</v>
       </c>
@@ -1268,7 +1254,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
+      <c r="A19" s="4">
         <f t="shared" si="5"/>
         <v>17</v>
       </c>
@@ -1311,7 +1297,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
+      <c r="A20" s="4">
         <f t="shared" si="5"/>
         <v>18</v>
       </c>
@@ -1354,7 +1340,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
+      <c r="A21" s="4">
         <f t="shared" si="5"/>
         <v>19</v>
       </c>
@@ -1397,7 +1383,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
+      <c r="A22" s="4">
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
@@ -1440,7 +1426,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
+      <c r="A23" s="4">
         <f t="shared" si="5"/>
         <v>21</v>
       </c>
@@ -1483,7 +1469,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
+      <c r="A24" s="4">
         <f t="shared" si="5"/>
         <v>22</v>
       </c>
@@ -1526,7 +1512,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
+      <c r="A25" s="4">
         <f t="shared" si="5"/>
         <v>23</v>
       </c>
@@ -1569,7 +1555,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
+      <c r="A26" s="4">
         <f t="shared" si="5"/>
         <v>24</v>
       </c>
@@ -1612,7 +1598,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
+      <c r="A27" s="4">
         <f t="shared" si="5"/>
         <v>25</v>
       </c>
@@ -1655,7 +1641,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
+      <c r="A28" s="4">
         <f t="shared" si="5"/>
         <v>26</v>
       </c>
@@ -1698,7 +1684,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="6">
+      <c r="A29" s="4">
         <f t="shared" si="5"/>
         <v>27</v>
       </c>
@@ -1741,7 +1727,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="6">
+      <c r="A30" s="4">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
@@ -1784,7 +1770,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="6">
+      <c r="A31" s="4">
         <f t="shared" si="5"/>
         <v>29</v>
       </c>
@@ -1827,7 +1813,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="6">
+      <c r="A32" s="4">
         <f t="shared" si="5"/>
         <v>30</v>
       </c>
@@ -1870,7 +1856,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="6">
+      <c r="A33" s="4">
         <f t="shared" si="5"/>
         <v>31</v>
       </c>
@@ -1913,7 +1899,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="6">
+      <c r="A34" s="4">
         <f t="shared" si="5"/>
         <v>32</v>
       </c>
@@ -1956,7 +1942,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="6">
+      <c r="A35" s="4">
         <f t="shared" si="5"/>
         <v>33</v>
       </c>
@@ -1999,7 +1985,7 @@
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="6">
+      <c r="A36" s="4">
         <f t="shared" si="5"/>
         <v>34</v>
       </c>
@@ -2042,7 +2028,7 @@
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="6">
+      <c r="A37" s="4">
         <f t="shared" si="5"/>
         <v>35</v>
       </c>
@@ -2085,7 +2071,7 @@
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="6">
+      <c r="A38" s="4">
         <f>A37+1</f>
         <v>36</v>
       </c>
@@ -2128,6 +2114,7 @@
       </c>
     </row>
     <row r="39" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="6"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
     </row>
@@ -2168,7 +2155,14 @@
       </c>
     </row>
     <row r="44" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B44" s="6"/>
       <c r="C44" s="1"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B45" s="6"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B46" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LR3/table_1_51.xlsx
+++ b/LR3/table_1_51.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A446734-E54C-4DC2-A1C9-AF6FF7C9EBAB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{253F9EB1-C09E-4506-9E94-DBF26226E4B4}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Фамилия квартиросъёмщика</t>
   </si>
@@ -195,12 +195,18 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -215,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -225,6 +231,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -507,8 +516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,10 +559,10 @@
       <c r="F2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="7" t="s">
         <v>6</v>
       </c>
       <c r="I2" s="4" t="s">
@@ -2123,8 +2132,8 @@
         <v>46</v>
       </c>
       <c r="C40" s="1">
-        <f>SUM(K3:K38)</f>
-        <v>121505.85</v>
+        <f>INT(SUM(K3:K38))</f>
+        <v>121505</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">

--- a/LR3/table_1_51.xlsx
+++ b/LR3/table_1_51.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{253F9EB1-C09E-4506-9E94-DBF26226E4B4}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D45A43-CF7F-4BEB-BF16-7C7F0BB1F1DD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -195,18 +195,12 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -221,7 +215,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -231,9 +225,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -516,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,10 +550,10 @@
       <c r="F2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="I2" s="4" t="s">

--- a/LR3/table_1_51.xlsx
+++ b/LR3/table_1_51.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D45A43-CF7F-4BEB-BF16-7C7F0BB1F1DD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C09AAD9F-2D47-4B11-9B9C-B093BFE13B45}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -508,7 +508,7 @@
   <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,6 +633,7 @@
         <v>44813</v>
       </c>
       <c r="G4" s="2">
+        <f>G3+1</f>
         <v>44806</v>
       </c>
       <c r="H4" s="1">
@@ -640,6 +641,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
+        <f>$I$3</f>
         <v>10</v>
       </c>
       <c r="J4" s="1">
@@ -676,6 +678,7 @@
         <v>44813</v>
       </c>
       <c r="G5" s="2">
+        <f t="shared" ref="G5:G38" si="8">G4+1</f>
         <v>44807</v>
       </c>
       <c r="H5" s="1">
@@ -683,6 +686,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
+        <f t="shared" ref="I5:I38" si="9">$I$3</f>
         <v>10</v>
       </c>
       <c r="J5" s="1">
@@ -719,6 +723,7 @@
         <v>44813</v>
       </c>
       <c r="G6" s="2">
+        <f t="shared" si="8"/>
         <v>44808</v>
       </c>
       <c r="H6" s="1">
@@ -726,6 +731,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J6" s="1">
@@ -762,6 +768,7 @@
         <v>44813</v>
       </c>
       <c r="G7" s="2">
+        <f t="shared" si="8"/>
         <v>44809</v>
       </c>
       <c r="H7" s="1">
@@ -769,6 +776,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J7" s="1">
@@ -805,6 +813,7 @@
         <v>44813</v>
       </c>
       <c r="G8" s="2">
+        <f t="shared" si="8"/>
         <v>44810</v>
       </c>
       <c r="H8" s="1">
@@ -812,6 +821,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J8" s="1">
@@ -848,6 +858,7 @@
         <v>44813</v>
       </c>
       <c r="G9" s="2">
+        <f t="shared" si="8"/>
         <v>44811</v>
       </c>
       <c r="H9" s="1">
@@ -855,6 +866,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J9" s="1">
@@ -891,6 +903,7 @@
         <v>44813</v>
       </c>
       <c r="G10" s="2">
+        <f t="shared" si="8"/>
         <v>44812</v>
       </c>
       <c r="H10" s="1">
@@ -898,6 +911,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J10" s="1">
@@ -934,6 +948,7 @@
         <v>44813</v>
       </c>
       <c r="G11" s="2">
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="H11" s="1">
@@ -941,6 +956,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J11" s="1">
@@ -977,6 +993,7 @@
         <v>44813</v>
       </c>
       <c r="G12" s="2">
+        <f t="shared" si="8"/>
         <v>44814</v>
       </c>
       <c r="H12" s="1">
@@ -984,6 +1001,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J12" s="1">
@@ -1020,6 +1038,7 @@
         <v>44813</v>
       </c>
       <c r="G13" s="2">
+        <f t="shared" si="8"/>
         <v>44815</v>
       </c>
       <c r="H13" s="1">
@@ -1027,6 +1046,7 @@
         <v>2</v>
       </c>
       <c r="I13" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J13" s="1">
@@ -1063,6 +1083,7 @@
         <v>44813</v>
       </c>
       <c r="G14" s="2">
+        <f t="shared" si="8"/>
         <v>44816</v>
       </c>
       <c r="H14" s="1">
@@ -1070,6 +1091,7 @@
         <v>3</v>
       </c>
       <c r="I14" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J14" s="1">
@@ -1106,6 +1128,7 @@
         <v>44813</v>
       </c>
       <c r="G15" s="2">
+        <f t="shared" si="8"/>
         <v>44817</v>
       </c>
       <c r="H15" s="1">
@@ -1113,6 +1136,7 @@
         <v>4</v>
       </c>
       <c r="I15" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J15" s="1">
@@ -1149,6 +1173,7 @@
         <v>44813</v>
       </c>
       <c r="G16" s="2">
+        <f t="shared" si="8"/>
         <v>44818</v>
       </c>
       <c r="H16" s="1">
@@ -1156,6 +1181,7 @@
         <v>5</v>
       </c>
       <c r="I16" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J16" s="1">
@@ -1192,6 +1218,7 @@
         <v>44813</v>
       </c>
       <c r="G17" s="2">
+        <f t="shared" si="8"/>
         <v>44819</v>
       </c>
       <c r="H17" s="1">
@@ -1199,6 +1226,7 @@
         <v>6</v>
       </c>
       <c r="I17" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J17" s="1">
@@ -1235,6 +1263,7 @@
         <v>44813</v>
       </c>
       <c r="G18" s="2">
+        <f t="shared" si="8"/>
         <v>44820</v>
       </c>
       <c r="H18" s="1">
@@ -1242,6 +1271,7 @@
         <v>7</v>
       </c>
       <c r="I18" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J18" s="1">
@@ -1278,6 +1308,7 @@
         <v>44813</v>
       </c>
       <c r="G19" s="2">
+        <f t="shared" si="8"/>
         <v>44821</v>
       </c>
       <c r="H19" s="1">
@@ -1285,6 +1316,7 @@
         <v>8</v>
       </c>
       <c r="I19" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J19" s="1">
@@ -1321,6 +1353,7 @@
         <v>44813</v>
       </c>
       <c r="G20" s="2">
+        <f t="shared" si="8"/>
         <v>44822</v>
       </c>
       <c r="H20" s="1">
@@ -1328,6 +1361,7 @@
         <v>9</v>
       </c>
       <c r="I20" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J20" s="1">
@@ -1364,6 +1398,7 @@
         <v>44813</v>
       </c>
       <c r="G21" s="2">
+        <f t="shared" si="8"/>
         <v>44823</v>
       </c>
       <c r="H21" s="1">
@@ -1371,6 +1406,7 @@
         <v>10</v>
       </c>
       <c r="I21" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J21" s="1">
@@ -1407,6 +1443,7 @@
         <v>44813</v>
       </c>
       <c r="G22" s="2">
+        <f t="shared" si="8"/>
         <v>44824</v>
       </c>
       <c r="H22" s="1">
@@ -1414,6 +1451,7 @@
         <v>11</v>
       </c>
       <c r="I22" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J22" s="1">
@@ -1450,6 +1488,7 @@
         <v>44813</v>
       </c>
       <c r="G23" s="2">
+        <f t="shared" si="8"/>
         <v>44825</v>
       </c>
       <c r="H23" s="1">
@@ -1457,6 +1496,7 @@
         <v>12</v>
       </c>
       <c r="I23" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J23" s="1">
@@ -1493,6 +1533,7 @@
         <v>44813</v>
       </c>
       <c r="G24" s="2">
+        <f t="shared" si="8"/>
         <v>44826</v>
       </c>
       <c r="H24" s="1">
@@ -1500,6 +1541,7 @@
         <v>13</v>
       </c>
       <c r="I24" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J24" s="1">
@@ -1536,6 +1578,7 @@
         <v>44813</v>
       </c>
       <c r="G25" s="2">
+        <f t="shared" si="8"/>
         <v>44827</v>
       </c>
       <c r="H25" s="1">
@@ -1543,6 +1586,7 @@
         <v>14</v>
       </c>
       <c r="I25" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J25" s="1">
@@ -1579,6 +1623,7 @@
         <v>44813</v>
       </c>
       <c r="G26" s="2">
+        <f t="shared" si="8"/>
         <v>44828</v>
       </c>
       <c r="H26" s="1">
@@ -1586,6 +1631,7 @@
         <v>15</v>
       </c>
       <c r="I26" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J26" s="1">
@@ -1622,6 +1668,7 @@
         <v>44813</v>
       </c>
       <c r="G27" s="2">
+        <f t="shared" si="8"/>
         <v>44829</v>
       </c>
       <c r="H27" s="1">
@@ -1629,6 +1676,7 @@
         <v>16</v>
       </c>
       <c r="I27" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J27" s="1">
@@ -1665,6 +1713,7 @@
         <v>44813</v>
       </c>
       <c r="G28" s="2">
+        <f t="shared" si="8"/>
         <v>44830</v>
       </c>
       <c r="H28" s="1">
@@ -1672,6 +1721,7 @@
         <v>17</v>
       </c>
       <c r="I28" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J28" s="1">
@@ -1708,6 +1758,7 @@
         <v>44813</v>
       </c>
       <c r="G29" s="2">
+        <f t="shared" si="8"/>
         <v>44831</v>
       </c>
       <c r="H29" s="1">
@@ -1715,6 +1766,7 @@
         <v>18</v>
       </c>
       <c r="I29" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J29" s="1">
@@ -1751,6 +1803,7 @@
         <v>44813</v>
       </c>
       <c r="G30" s="2">
+        <f t="shared" si="8"/>
         <v>44832</v>
       </c>
       <c r="H30" s="1">
@@ -1758,6 +1811,7 @@
         <v>19</v>
       </c>
       <c r="I30" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J30" s="1">
@@ -1794,6 +1848,7 @@
         <v>44813</v>
       </c>
       <c r="G31" s="2">
+        <f t="shared" si="8"/>
         <v>44833</v>
       </c>
       <c r="H31" s="1">
@@ -1801,6 +1856,7 @@
         <v>20</v>
       </c>
       <c r="I31" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J31" s="1">
@@ -1837,6 +1893,7 @@
         <v>44813</v>
       </c>
       <c r="G32" s="2">
+        <f t="shared" si="8"/>
         <v>44834</v>
       </c>
       <c r="H32" s="1">
@@ -1844,6 +1901,7 @@
         <v>21</v>
       </c>
       <c r="I32" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J32" s="1">
@@ -1880,6 +1938,7 @@
         <v>44813</v>
       </c>
       <c r="G33" s="2">
+        <f t="shared" si="8"/>
         <v>44835</v>
       </c>
       <c r="H33" s="1">
@@ -1887,6 +1946,7 @@
         <v>22</v>
       </c>
       <c r="I33" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J33" s="1">
@@ -1923,6 +1983,7 @@
         <v>44813</v>
       </c>
       <c r="G34" s="2">
+        <f t="shared" si="8"/>
         <v>44836</v>
       </c>
       <c r="H34" s="1">
@@ -1930,6 +1991,7 @@
         <v>23</v>
       </c>
       <c r="I34" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J34" s="1">
@@ -1954,7 +2016,7 @@
         <v>54</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" ref="D35:D38" si="8">$A$1*1.1/2</f>
+        <f t="shared" ref="D35:D38" si="10">$A$1*1.1/2</f>
         <v>28.05</v>
       </c>
       <c r="E35" s="1">
@@ -1966,6 +2028,7 @@
         <v>44813</v>
       </c>
       <c r="G35" s="2">
+        <f t="shared" si="8"/>
         <v>44837</v>
       </c>
       <c r="H35" s="1">
@@ -1973,6 +2036,7 @@
         <v>24</v>
       </c>
       <c r="I35" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J35" s="1">
@@ -1997,7 +2061,7 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>28.05</v>
       </c>
       <c r="E36" s="1">
@@ -2009,6 +2073,7 @@
         <v>44813</v>
       </c>
       <c r="G36" s="2">
+        <f t="shared" si="8"/>
         <v>44838</v>
       </c>
       <c r="H36" s="1">
@@ -2016,6 +2081,7 @@
         <v>25</v>
       </c>
       <c r="I36" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J36" s="1">
@@ -2040,7 +2106,7 @@
         <v>53</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>28.05</v>
       </c>
       <c r="E37" s="1">
@@ -2052,6 +2118,7 @@
         <v>44813</v>
       </c>
       <c r="G37" s="2">
+        <f t="shared" si="8"/>
         <v>44839</v>
       </c>
       <c r="H37" s="1">
@@ -2059,6 +2126,7 @@
         <v>26</v>
       </c>
       <c r="I37" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J37" s="1">
@@ -2083,7 +2151,7 @@
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>28.05</v>
       </c>
       <c r="E38" s="1">
@@ -2095,6 +2163,7 @@
         <v>44813</v>
       </c>
       <c r="G38" s="2">
+        <f t="shared" si="8"/>
         <v>44840</v>
       </c>
       <c r="H38" s="1">
@@ -2102,6 +2171,7 @@
         <v>27</v>
       </c>
       <c r="I38" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J38" s="1">

--- a/LR3/table_1_51.xlsx
+++ b/LR3/table_1_51.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C09AAD9F-2D47-4B11-9B9C-B093BFE13B45}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DADA4DC-7F06-46A7-8A81-E3D6E5AAD685}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -508,7 +508,7 @@
   <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,7 +592,7 @@
         <v>44805</v>
       </c>
       <c r="H3" s="1">
-        <f>IF(G3&lt;F3, 0, G3-F3)</f>
+        <f>IF(G3&lt;=F3,0,G3-F3)</f>
         <v>0</v>
       </c>
       <c r="I3" s="1">
@@ -637,7 +637,7 @@
         <v>44806</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" ref="H4:H38" si="2">IF(G4&lt;F4, 0, G4-F4)</f>
+        <f t="shared" ref="H4:H38" si="2">IF(G4&lt;=F4,0,G4-F4)</f>
         <v>0</v>
       </c>
       <c r="I4" s="1">

--- a/LR3/table_1_51.xlsx
+++ b/LR3/table_1_51.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DADA4DC-7F06-46A7-8A81-E3D6E5AAD685}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C00ADF-0DBF-4ED9-A635-E1E18E118508}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -508,7 +508,7 @@
   <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H3" sqref="H3:H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,7 +592,7 @@
         <v>44805</v>
       </c>
       <c r="H3" s="1">
-        <f>IF(G3&lt;=F3,0,G3-F3)</f>
+        <f>IF(G3&gt;F3,G3-F3,0)</f>
         <v>0</v>
       </c>
       <c r="I3" s="1">
@@ -637,7 +637,7 @@
         <v>44806</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" ref="H4:H38" si="2">IF(G4&lt;=F4,0,G4-F4)</f>
+        <f t="shared" ref="H4:H38" si="2">IF(G4&gt;F4,G4-F4,0)</f>
         <v>0</v>
       </c>
       <c r="I4" s="1">

--- a/LR3/table_1_51.xlsx
+++ b/LR3/table_1_51.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C00ADF-0DBF-4ED9-A635-E1E18E118508}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A420C7-53C9-41CB-8CD1-3F0F35FB1E34}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -507,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H38"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2193,7 +2193,7 @@
         <v>46</v>
       </c>
       <c r="C40" s="1">
-        <f>INT(SUM(K3:K38))</f>
+        <f>FLOOR(INT(SUM(K3:K38)),1)</f>
         <v>121505</v>
       </c>
     </row>

--- a/LR3/table_1_51.xlsx
+++ b/LR3/table_1_51.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A420C7-53C9-41CB-8CD1-3F0F35FB1E34}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{869658CE-9C47-4411-9570-01963AF92B2F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -507,7 +507,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
@@ -2189,7 +2189,7 @@
       <c r="C39" s="1"/>
     </row>
     <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C40" s="1">
@@ -2198,7 +2198,7 @@
       </c>
     </row>
     <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C41" s="1">
@@ -2207,7 +2207,7 @@
       </c>
     </row>
     <row r="42" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C42" s="1">
@@ -2216,7 +2216,7 @@
       </c>
     </row>
     <row r="43" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="4" t="s">
         <v>48</v>
       </c>
       <c r="C43" s="1">

--- a/LR3/table_1_51.xlsx
+++ b/LR3/table_1_51.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{869658CE-9C47-4411-9570-01963AF92B2F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{988D9647-100C-4814-8FC3-47655C2C70C3}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -507,7 +507,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>

--- a/LR3/table_1_51.xlsx
+++ b/LR3/table_1_51.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{988D9647-100C-4814-8FC3-47655C2C70C3}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{577E0D83-992A-467F-893B-C2C698F721BC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -507,7 +507,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
@@ -2193,7 +2193,7 @@
         <v>46</v>
       </c>
       <c r="C40" s="1">
-        <f>FLOOR(INT(SUM(K3:K38)),1)</f>
+        <f>FLOOR(SUM(K3:K38),1)</f>
         <v>121505</v>
       </c>
     </row>

--- a/LR3/table_1_51.xlsx
+++ b/LR3/table_1_51.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sts18\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sts18\OneDrive\Рабочий стол\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A0DFE8-0A74-4754-8467-5F289D3CFB3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C56DD2CF-6822-450A-8509-E08007075585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -132,15 +132,6 @@
     <t>Куропаткин 8</t>
   </si>
   <si>
-    <t>Куропаткин 9</t>
-  </si>
-  <si>
-    <t>Куропаткин 10</t>
-  </si>
-  <si>
-    <t>Куропаткин 11</t>
-  </si>
-  <si>
     <t>№ квартиры</t>
   </si>
   <si>
@@ -183,10 +174,19 @@
     <t>Штраф, руб.</t>
   </si>
   <si>
-    <t>Куропаткин 12</t>
-  </si>
-  <si>
     <t>Камалов</t>
+  </si>
+  <si>
+    <t>Санников</t>
+  </si>
+  <si>
+    <t>Ахмадуллина</t>
+  </si>
+  <si>
+    <t>Роман</t>
+  </si>
+  <si>
+    <t>Мохамед</t>
   </si>
 </sst>
 </file>
@@ -588,8 +588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -598,12 +598,12 @@
     <col min="2" max="2" width="37.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="8.7109375" style="5"/>
   </cols>
@@ -616,37 +616,37 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -830,7 +830,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="5"/>
@@ -875,7 +875,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="5"/>
@@ -1190,7 +1190,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="5"/>
@@ -1726,30 +1726,30 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <f t="shared" si="4"/>
+        <f>A26+1</f>
         <v>25</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>24</v>
+      <c r="B27" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="5"/>
+        <f>C26-0.5</f>
         <v>58</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="6"/>
+        <f>D26</f>
         <v>56.1</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" si="0"/>
+        <f>C27*D27</f>
         <v>3253.8</v>
       </c>
       <c r="F27" s="3">
-        <f t="shared" si="7"/>
+        <f>$F$3</f>
         <v>44813</v>
       </c>
       <c r="G27" s="3">
-        <f t="shared" si="8"/>
+        <f>G26+1</f>
         <v>44829</v>
       </c>
       <c r="H27" s="1">
@@ -1775,7 +1775,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="5"/>
@@ -1820,7 +1820,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="5"/>
@@ -1865,7 +1865,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="5"/>
@@ -1910,7 +1910,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="5"/>
@@ -1955,7 +1955,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="5"/>
@@ -2000,7 +2000,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="5"/>
@@ -2045,7 +2045,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="5"/>
@@ -2090,7 +2090,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="5"/>
@@ -2101,7 +2101,7 @@
         <v>28.05</v>
       </c>
       <c r="E35" s="1">
-        <f>C35*D35</f>
+        <f t="shared" si="0"/>
         <v>1514.7</v>
       </c>
       <c r="F35" s="3">
@@ -2135,7 +2135,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="5"/>
@@ -2180,7 +2180,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="5"/>
@@ -2225,7 +2225,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="5"/>
@@ -2264,49 +2264,41 @@
         <v>1742.625</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B39" s="2"/>
-      <c r="F39" s="1"/>
-    </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C40" s="4">
         <f>FLOOR(SUM(K3:K38),1)</f>
         <v>121505</v>
       </c>
-      <c r="F40" s="1"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
         <v>61.25</v>
       </c>
-      <c r="F41" s="1"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
         <v>27</v>
       </c>
-      <c r="F42" s="1"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K38)</f>
         <v>3927</v>
       </c>
-      <c r="F43" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
